--- a/config_hlw/game_enter_btn_config.xlsx
+++ b/config_hlw/game_enter_btn_config.xlsx
@@ -58,6 +58,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>admin:</t>
@@ -66,6 +67,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -176,6 +178,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -186,6 +189,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -217,16 +221,10 @@
     <t>|内容</t>
   </si>
   <si>
-    <t>3;116#2#139#8#122#61#137#9#117#134#138#</t>
-  </si>
-  <si>
     <t>left</t>
   </si>
   <si>
     <t>right</t>
-  </si>
-  <si>
-    <t>110#84#114#42#</t>
   </si>
   <si>
     <t>115#</t>
@@ -243,6 +241,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -253,6 +252,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -292,6 +292,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -302,6 +303,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -356,6 +358,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -366,6 +369,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -376,6 +380,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -397,6 +402,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -407,6 +413,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -483,9 +490,6 @@
     <t>大厅vip专享</t>
   </si>
   <si>
-    <t>"sys_flqcj",</t>
-  </si>
-  <si>
     <t>cps_xycj</t>
   </si>
   <si>
@@ -719,6 +723,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>植树礼物</t>
@@ -1099,6 +1104,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1109,6 +1115,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1316,6 +1323,18 @@
   </si>
   <si>
     <t>36;89;105#97;11;93;94#58;107#30#</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_flqcj",</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>10#42#</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>110#84#114#61#</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1335,6 +1354,7 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1347,6 +1367,7 @@
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1366,6 +1387,7 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1373,23 +1395,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1495,7 +1521,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1584,6 +1610,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1986,7 +2021,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2034,7 +2069,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2077,10 +2112,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2091,7 +2126,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2133,7 +2168,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2171,10 +2206,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2185,7 +2220,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2231,7 +2266,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2278,7 +2313,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2320,7 +2355,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2355,7 +2390,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2366,7 +2401,7 @@
         <v>28</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2377,7 +2412,7 @@
         <v>30</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2385,10 +2420,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F4" s="5"/>
     </row>
@@ -2397,10 +2432,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -2408,7 +2443,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>34</v>
@@ -2419,10 +2454,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2430,10 +2465,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2441,10 +2476,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2479,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2490,7 +2525,7 @@
         <v>33</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2498,7 +2533,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -2511,7 +2546,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2519,10 +2554,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2530,10 +2565,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2541,10 +2576,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2552,10 +2587,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2697,7 +2732,7 @@
         <v>33</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2910,10 +2945,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2951,10 +2986,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2995,10 +3030,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3015,10 +3050,10 @@
   <dimension ref="A1:F140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A114" sqref="A114"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3034,22 +3069,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -3057,7 +3092,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C2" s="5">
         <v>0</v>
@@ -3067,7 +3102,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -3075,37 +3110,37 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C3" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5">
         <v>2</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>99</v>
+      <c r="B4" s="30" t="s">
+        <v>365</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E4" s="5">
         <v>3</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -3113,7 +3148,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
@@ -3123,7 +3158,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -3131,7 +3166,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
@@ -3141,7 +3176,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -3149,7 +3184,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -3159,7 +3194,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -3167,7 +3202,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
@@ -3177,7 +3212,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -3185,17 +3220,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C9" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5">
         <v>8</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -3203,7 +3238,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -3213,7 +3248,7 @@
         <v>9</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -3221,7 +3256,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -3231,7 +3266,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -3239,7 +3274,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
@@ -3249,7 +3284,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -3257,7 +3292,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
@@ -3267,7 +3302,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -3275,7 +3310,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C14" s="5">
         <v>0</v>
@@ -3285,7 +3320,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -3293,7 +3328,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C15" s="5">
         <v>0</v>
@@ -3303,7 +3338,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -3311,7 +3346,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C16" s="5">
         <v>0</v>
@@ -3321,7 +3356,7 @@
         <v>15</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -3329,7 +3364,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
@@ -3339,7 +3374,7 @@
         <v>16</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -3347,7 +3382,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C18" s="5">
         <v>0</v>
@@ -3357,7 +3392,7 @@
         <v>17</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -3365,7 +3400,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
@@ -3375,7 +3410,7 @@
         <v>18</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -3383,7 +3418,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
@@ -3393,7 +3428,7 @@
         <v>19</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -3401,7 +3436,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
@@ -3411,7 +3446,7 @@
         <v>20</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -3419,7 +3454,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C22" s="5">
         <v>0</v>
@@ -3429,7 +3464,7 @@
         <v>21</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -3437,7 +3472,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C23" s="5">
         <v>0</v>
@@ -3447,7 +3482,7 @@
         <v>22</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -3455,7 +3490,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C24" s="5">
         <v>1</v>
@@ -3465,7 +3500,7 @@
         <v>23</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -3473,7 +3508,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C25" s="5">
         <v>0</v>
@@ -3483,7 +3518,7 @@
         <v>24</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -3491,7 +3526,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C26" s="5">
         <v>1</v>
@@ -3501,7 +3536,7 @@
         <v>25</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -3509,7 +3544,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C27" s="5">
         <v>1</v>
@@ -3519,7 +3554,7 @@
         <v>26</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -3527,7 +3562,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C28" s="5">
         <v>1</v>
@@ -3537,7 +3572,7 @@
         <v>27</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -3545,7 +3580,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C29" s="5">
         <v>0</v>
@@ -3555,7 +3590,7 @@
         <v>28</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -3563,7 +3598,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C30" s="5">
         <v>1</v>
@@ -3573,7 +3608,7 @@
         <v>29</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -3581,7 +3616,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C31" s="5">
         <v>1</v>
@@ -3591,7 +3626,7 @@
         <v>30</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -3599,7 +3634,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C32" s="5">
         <v>0</v>
@@ -3609,7 +3644,7 @@
         <v>31</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -3617,7 +3652,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C33" s="5">
         <v>0</v>
@@ -3627,7 +3662,7 @@
         <v>32</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -3635,7 +3670,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C34" s="5">
         <v>1</v>
@@ -3645,7 +3680,7 @@
         <v>33</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -3653,7 +3688,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C35" s="5">
         <v>1</v>
@@ -3663,7 +3698,7 @@
         <v>34</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -3671,7 +3706,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C36" s="5">
         <v>1</v>
@@ -3681,7 +3716,7 @@
         <v>35</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -3689,7 +3724,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C37" s="5">
         <v>1</v>
@@ -3699,7 +3734,7 @@
         <v>36</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -3707,7 +3742,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C38" s="5">
         <v>1</v>
@@ -3717,7 +3752,7 @@
         <v>37</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -3725,7 +3760,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C39" s="5">
         <v>1</v>
@@ -3735,7 +3770,7 @@
         <v>38</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -3743,7 +3778,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C40" s="5">
         <v>1</v>
@@ -3753,7 +3788,7 @@
         <v>39</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -3761,7 +3796,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C41" s="5">
         <v>1</v>
@@ -3771,7 +3806,7 @@
         <v>40</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -3779,7 +3814,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -3788,7 +3823,7 @@
         <v>41</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -3796,7 +3831,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -3805,7 +3840,7 @@
         <v>42</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -3813,7 +3848,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -3822,7 +3857,7 @@
         <v>43</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -3830,7 +3865,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -3839,7 +3874,7 @@
         <v>44</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -3847,7 +3882,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -3856,7 +3891,7 @@
         <v>45</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -3864,7 +3899,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -3873,7 +3908,7 @@
         <v>46</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -3881,7 +3916,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -3890,7 +3925,7 @@
         <v>47</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -3898,7 +3933,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -3907,7 +3942,7 @@
         <v>48</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -3915,7 +3950,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -3924,7 +3959,7 @@
         <v>49</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -3932,7 +3967,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -3941,7 +3976,7 @@
         <v>50</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -3949,7 +3984,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -3958,7 +3993,7 @@
         <v>51</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -3966,7 +4001,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -3975,7 +4010,7 @@
         <v>52</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -3983,7 +4018,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C54" s="5">
         <v>1</v>
@@ -3993,7 +4028,7 @@
         <v>53</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -4001,7 +4036,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -4010,7 +4045,7 @@
         <v>54</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -4018,7 +4053,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -4027,7 +4062,7 @@
         <v>55</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -4035,7 +4070,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -4044,7 +4079,7 @@
         <v>56</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -4052,7 +4087,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -4061,7 +4096,7 @@
         <v>57</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -4069,7 +4104,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -4078,7 +4113,7 @@
         <v>58</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -4086,7 +4121,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -4095,7 +4130,7 @@
         <v>59</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -4103,7 +4138,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -4112,7 +4147,7 @@
         <v>60</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -4120,7 +4155,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -4129,7 +4164,7 @@
         <v>61</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -4137,7 +4172,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -4146,7 +4181,7 @@
         <v>62</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -4154,7 +4189,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -4163,7 +4198,7 @@
         <v>63</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -4171,7 +4206,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -4180,7 +4215,7 @@
         <v>64</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -4188,7 +4223,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -4197,7 +4232,7 @@
         <v>65</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -4205,7 +4240,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -4214,7 +4249,7 @@
         <v>66</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -4222,7 +4257,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -4231,7 +4266,7 @@
         <v>67</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -4239,7 +4274,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -4248,7 +4283,7 @@
         <v>68</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -4256,7 +4291,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -4265,7 +4300,7 @@
         <v>69</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -4273,7 +4308,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -4282,7 +4317,7 @@
         <v>70</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -4290,7 +4325,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -4299,7 +4334,7 @@
         <v>71</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -4307,7 +4342,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -4316,7 +4351,7 @@
         <v>72</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -4324,7 +4359,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -4333,7 +4368,7 @@
         <v>73</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -4341,7 +4376,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -4350,7 +4385,7 @@
         <v>74</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -4358,7 +4393,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -4367,7 +4402,7 @@
         <v>75</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -4375,7 +4410,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -4384,7 +4419,7 @@
         <v>76</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -4392,7 +4427,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -4401,7 +4436,7 @@
         <v>77</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -4409,7 +4444,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -4418,7 +4453,7 @@
         <v>78</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -4426,7 +4461,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -4435,7 +4470,7 @@
         <v>79</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -4443,7 +4478,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -4452,7 +4487,7 @@
         <v>80</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -4460,7 +4495,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -4469,7 +4504,7 @@
         <v>81</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -4477,7 +4512,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -4486,7 +4521,7 @@
         <v>82</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -4494,7 +4529,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -4503,7 +4538,7 @@
         <v>83</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -4511,7 +4546,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -4520,7 +4555,7 @@
         <v>84</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -4528,7 +4563,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -4537,7 +4572,7 @@
         <v>85</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -4545,7 +4580,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -4554,7 +4589,7 @@
         <v>86</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -4562,19 +4597,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E88">
         <v>87</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -4582,7 +4617,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -4591,7 +4626,7 @@
         <v>88</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -4599,7 +4634,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -4608,7 +4643,7 @@
         <v>89</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -4616,7 +4651,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -4625,7 +4660,7 @@
         <v>90</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -4633,7 +4668,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -4642,7 +4677,7 @@
         <v>91</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -4650,7 +4685,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -4659,7 +4694,7 @@
         <v>92</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -4667,7 +4702,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -4676,7 +4711,7 @@
         <v>93</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -4684,7 +4719,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -4693,7 +4728,7 @@
         <v>94</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -4701,7 +4736,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -4710,7 +4745,7 @@
         <v>95</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -4718,7 +4753,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -4727,7 +4762,7 @@
         <v>96</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -4735,7 +4770,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -4745,7 +4780,7 @@
         <v>97</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -4753,7 +4788,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -4762,7 +4797,7 @@
         <v>98</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -4770,7 +4805,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -4779,7 +4814,7 @@
         <v>99</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -4787,7 +4822,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -4796,7 +4831,7 @@
         <v>100</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -4804,19 +4839,19 @@
         <v>101</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E102">
         <v>101</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4824,7 +4859,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C103" s="1">
         <v>1</v>
@@ -4833,7 +4868,7 @@
         <v>102</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -4841,7 +4876,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -4850,7 +4885,7 @@
         <v>103</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4858,7 +4893,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C105" s="2">
         <v>1</v>
@@ -4867,7 +4902,7 @@
         <v>104</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -4875,19 +4910,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E106">
         <v>105</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -4895,7 +4930,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -4904,7 +4939,7 @@
         <v>106</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -4912,7 +4947,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -4921,7 +4956,7 @@
         <v>107</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -4929,7 +4964,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -4938,7 +4973,7 @@
         <v>108</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -4946,7 +4981,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -4955,7 +4990,7 @@
         <v>109</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -4963,7 +4998,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -4972,7 +5007,7 @@
         <v>110</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -4980,7 +5015,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -4989,7 +5024,7 @@
         <v>111</v>
       </c>
       <c r="F112" s="14" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -4997,7 +5032,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -5006,7 +5041,7 @@
         <v>112</v>
       </c>
       <c r="F113" s="14" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -5014,7 +5049,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -5023,7 +5058,7 @@
         <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -5031,7 +5066,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -5040,7 +5075,7 @@
         <v>114</v>
       </c>
       <c r="F115" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -5048,19 +5083,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -5068,19 +5103,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E117">
         <v>116</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5088,7 +5123,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -5097,7 +5132,7 @@
         <v>117</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -5105,7 +5140,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -5114,7 +5149,7 @@
         <v>118</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -5122,7 +5157,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -5131,7 +5166,7 @@
         <v>119</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -5139,7 +5174,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -5148,7 +5183,7 @@
         <v>120</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -5156,7 +5191,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -5165,7 +5200,7 @@
         <v>121</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -5173,7 +5208,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -5182,7 +5217,7 @@
         <v>122</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -5190,7 +5225,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -5199,7 +5234,7 @@
         <v>123</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -5207,7 +5242,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -5216,7 +5251,7 @@
         <v>124</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -5224,7 +5259,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -5233,7 +5268,7 @@
         <v>125</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -5241,7 +5276,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -5250,7 +5285,7 @@
         <v>126</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -5258,7 +5293,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -5267,7 +5302,7 @@
         <v>127</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -5275,19 +5310,19 @@
         <v>128</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
       <c r="D129" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E129">
         <v>128</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
@@ -5295,19 +5330,19 @@
         <v>129</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
       <c r="D130" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E130">
         <v>129</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
@@ -5315,19 +5350,19 @@
         <v>130</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C131" s="5">
         <v>1</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E131" s="5">
         <v>130</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
@@ -5335,19 +5370,19 @@
         <v>131</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C132" s="5">
         <v>1</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E132" s="5">
         <v>131</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
@@ -5355,7 +5390,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C133" s="5">
         <v>1</v>
@@ -5364,7 +5399,7 @@
         <v>132</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -5372,7 +5407,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C134" s="5">
         <v>1</v>
@@ -5381,7 +5416,7 @@
         <v>133</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5389,19 +5424,19 @@
         <v>134</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
       <c r="D135" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E135">
         <v>134</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
@@ -5409,19 +5444,19 @@
         <v>135</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C136">
         <v>1</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E136">
         <v>135</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
@@ -5429,19 +5464,19 @@
         <v>136</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E137">
         <v>136</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5449,19 +5484,19 @@
         <v>137</v>
       </c>
       <c r="B138" s="16" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
       <c r="D138" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E138">
         <v>137</v>
       </c>
       <c r="F138" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5469,19 +5504,19 @@
         <v>138</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
       <c r="D139" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E139">
         <v>138</v>
       </c>
       <c r="F139" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
@@ -5489,7 +5524,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -5499,7 +5534,7 @@
         <v>139</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -5865,7 +5900,7 @@
   <dimension ref="A1:J140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5902,8 +5937,8 @@
       <c r="B2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>39</v>
+      <c r="C2" s="31" t="s">
+        <v>366</v>
       </c>
       <c r="D2" s="5">
         <f>'all_enter|所有按钮入口'!E2</f>
@@ -5919,10 +5954,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D3" s="5">
         <f>'all_enter|所有按钮入口'!E3</f>
@@ -5942,10 +5977,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>367</v>
       </c>
       <c r="D4" s="5">
         <f>'all_enter|所有按钮入口'!E4</f>
@@ -5964,7 +5999,7 @@
         <v>30</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D5" s="5">
         <f>'all_enter|所有按钮入口'!E5</f>
@@ -5981,10 +6016,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D6" s="5">
         <f>'all_enter|所有按钮入口'!E6</f>
@@ -6000,10 +6035,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D7" s="5">
         <f>'all_enter|所有按钮入口'!E7</f>
@@ -6019,10 +6054,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D8" s="5">
         <f>'all_enter|所有按钮入口'!E8</f>
@@ -6038,10 +6073,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D9" s="5">
         <f>'all_enter|所有按钮入口'!E9</f>
@@ -7410,7 +7445,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/config_hlw/game_enter_btn_config.xlsx
+++ b/config_hlw/game_enter_btn_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="820" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="820" firstSheet="20" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -841,9 +841,6 @@
     <t>水果消消乐</t>
   </si>
   <si>
-    <t>"sys_cqg",</t>
-  </si>
-  <si>
     <t>存钱罐</t>
   </si>
   <si>
@@ -1335,6 +1332,10 @@
   </si>
   <si>
     <t>110#84#114#61#</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_045_cqg",</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1521,7 +1522,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1620,6 +1621,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3049,11 +3053,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3128,7 +3132,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
@@ -3724,7 +3728,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C37" s="5">
         <v>1</v>
@@ -4154,8 +4158,8 @@
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="9" t="s">
-        <v>211</v>
+      <c r="B62" s="33" t="s">
+        <v>367</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -4164,7 +4168,7 @@
         <v>61</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -4172,7 +4176,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -4181,7 +4185,7 @@
         <v>62</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -4189,7 +4193,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -4198,7 +4202,7 @@
         <v>63</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -4206,7 +4210,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -4215,7 +4219,7 @@
         <v>64</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -4223,7 +4227,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -4232,7 +4236,7 @@
         <v>65</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -4240,7 +4244,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -4249,7 +4253,7 @@
         <v>66</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -4257,7 +4261,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -4266,7 +4270,7 @@
         <v>67</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -4274,7 +4278,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -4283,7 +4287,7 @@
         <v>68</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -4291,7 +4295,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -4300,7 +4304,7 @@
         <v>69</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -4308,7 +4312,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -4317,7 +4321,7 @@
         <v>70</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -4325,7 +4329,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -4334,7 +4338,7 @@
         <v>71</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -4342,7 +4346,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -4351,7 +4355,7 @@
         <v>72</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -4359,7 +4363,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -4368,7 +4372,7 @@
         <v>73</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -4376,7 +4380,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -4385,7 +4389,7 @@
         <v>74</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -4393,7 +4397,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -4402,7 +4406,7 @@
         <v>75</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -4410,7 +4414,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -4419,7 +4423,7 @@
         <v>76</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -4427,7 +4431,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -4436,7 +4440,7 @@
         <v>77</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -4444,7 +4448,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -4453,7 +4457,7 @@
         <v>78</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -4461,7 +4465,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -4470,7 +4474,7 @@
         <v>79</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -4478,7 +4482,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -4487,7 +4491,7 @@
         <v>80</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -4495,7 +4499,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -4504,7 +4508,7 @@
         <v>81</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -4512,7 +4516,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -4521,7 +4525,7 @@
         <v>82</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -4529,7 +4533,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -4538,7 +4542,7 @@
         <v>83</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -4546,7 +4550,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -4563,7 +4567,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -4572,7 +4576,7 @@
         <v>85</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -4580,7 +4584,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -4589,7 +4593,7 @@
         <v>86</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -4597,19 +4601,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" s="5" t="s">
         <v>262</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>263</v>
       </c>
       <c r="E88">
         <v>87</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -4617,7 +4621,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -4626,7 +4630,7 @@
         <v>88</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -4634,7 +4638,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -4643,7 +4647,7 @@
         <v>89</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -4651,7 +4655,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -4660,7 +4664,7 @@
         <v>90</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -4668,7 +4672,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -4677,7 +4681,7 @@
         <v>91</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -4685,7 +4689,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -4694,7 +4698,7 @@
         <v>92</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -4702,7 +4706,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -4711,7 +4715,7 @@
         <v>93</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -4719,7 +4723,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -4728,7 +4732,7 @@
         <v>94</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -4736,7 +4740,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -4745,7 +4749,7 @@
         <v>95</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -4753,7 +4757,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -4762,7 +4766,7 @@
         <v>96</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -4770,7 +4774,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -4780,7 +4784,7 @@
         <v>97</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -4788,7 +4792,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -4805,7 +4809,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -4814,7 +4818,7 @@
         <v>99</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -4822,7 +4826,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -4831,7 +4835,7 @@
         <v>100</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -4839,19 +4843,19 @@
         <v>101</v>
       </c>
       <c r="B102" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102" s="6" t="s">
         <v>290</v>
-      </c>
-      <c r="C102">
-        <v>1</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>291</v>
       </c>
       <c r="E102">
         <v>101</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4859,7 +4863,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C103" s="1">
         <v>1</v>
@@ -4868,7 +4872,7 @@
         <v>102</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -4876,7 +4880,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -4885,7 +4889,7 @@
         <v>103</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4893,7 +4897,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C105" s="2">
         <v>1</v>
@@ -4902,7 +4906,7 @@
         <v>104</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -4910,19 +4914,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106" s="5" t="s">
         <v>299</v>
-      </c>
-      <c r="C106">
-        <v>1</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="E106">
         <v>105</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -4930,7 +4934,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -4939,7 +4943,7 @@
         <v>106</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -4947,7 +4951,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -4956,7 +4960,7 @@
         <v>107</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -4964,7 +4968,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -4973,7 +4977,7 @@
         <v>108</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -4981,7 +4985,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -4990,7 +4994,7 @@
         <v>109</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -4998,7 +5002,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -5007,7 +5011,7 @@
         <v>110</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -5015,7 +5019,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -5024,7 +5028,7 @@
         <v>111</v>
       </c>
       <c r="F112" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -5032,7 +5036,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -5041,7 +5045,7 @@
         <v>112</v>
       </c>
       <c r="F113" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -5049,7 +5053,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -5058,7 +5062,7 @@
         <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -5066,7 +5070,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -5075,7 +5079,7 @@
         <v>114</v>
       </c>
       <c r="F115" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -5083,19 +5087,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -5103,13 +5107,13 @@
         <v>116</v>
       </c>
       <c r="B117" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" s="5" t="s">
         <v>322</v>
-      </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>323</v>
       </c>
       <c r="E117">
         <v>116</v>
@@ -5123,7 +5127,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -5132,7 +5136,7 @@
         <v>117</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -5140,7 +5144,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -5149,7 +5153,7 @@
         <v>118</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -5157,7 +5161,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -5166,7 +5170,7 @@
         <v>119</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -5174,7 +5178,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -5183,7 +5187,7 @@
         <v>120</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -5191,7 +5195,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -5200,7 +5204,7 @@
         <v>121</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -5208,7 +5212,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -5217,7 +5221,7 @@
         <v>122</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -5225,7 +5229,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -5234,7 +5238,7 @@
         <v>123</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -5242,7 +5246,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -5251,7 +5255,7 @@
         <v>124</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -5259,7 +5263,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -5268,7 +5272,7 @@
         <v>125</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -5276,7 +5280,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -5285,7 +5289,7 @@
         <v>126</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -5293,7 +5297,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -5302,7 +5306,7 @@
         <v>127</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -5310,19 +5314,19 @@
         <v>128</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
       <c r="D129" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E129">
         <v>128</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
@@ -5330,19 +5334,19 @@
         <v>129</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
       <c r="D130" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E130">
         <v>129</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
@@ -5356,13 +5360,13 @@
         <v>1</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E131" s="5">
         <v>130</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
@@ -5376,13 +5380,13 @@
         <v>1</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E132" s="5">
         <v>131</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
@@ -5390,7 +5394,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C133" s="5">
         <v>1</v>
@@ -5399,7 +5403,7 @@
         <v>132</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -5407,7 +5411,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C134" s="5">
         <v>1</v>
@@ -5416,7 +5420,7 @@
         <v>133</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5424,19 +5428,19 @@
         <v>134</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
       <c r="D135" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E135">
         <v>134</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
@@ -5444,19 +5448,19 @@
         <v>135</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C136">
         <v>1</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E136">
         <v>135</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
@@ -5464,19 +5468,19 @@
         <v>136</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E137">
         <v>136</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5484,19 +5488,19 @@
         <v>137</v>
       </c>
       <c r="B138" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138" t="s">
         <v>359</v>
-      </c>
-      <c r="C138">
-        <v>1</v>
-      </c>
-      <c r="D138" t="s">
-        <v>360</v>
       </c>
       <c r="E138">
         <v>137</v>
       </c>
       <c r="F138" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5504,19 +5508,19 @@
         <v>138</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
       <c r="D139" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E139">
         <v>138</v>
       </c>
       <c r="F139" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
@@ -5524,7 +5528,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -5899,7 +5903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -5938,7 +5942,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D2" s="5">
         <f>'all_enter|所有按钮入口'!E2</f>
@@ -5957,7 +5961,7 @@
         <v>39</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D3" s="5">
         <f>'all_enter|所有按钮入口'!E3</f>
@@ -5980,7 +5984,7 @@
         <v>40</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D4" s="5">
         <f>'all_enter|所有按钮入口'!E4</f>

--- a/config_hlw/game_enter_btn_config.xlsx
+++ b/config_hlw/game_enter_btn_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="820" firstSheet="20" activeTab="27"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="820" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -526,13 +526,7 @@
     <t>鲸鱼福利</t>
   </si>
   <si>
-    <t>"sys_xsfl",</t>
-  </si>
-  <si>
     <t>限时福利</t>
-  </si>
-  <si>
-    <t>"sys_yk",</t>
   </si>
   <si>
     <t>月卡</t>
@@ -1319,15 +1313,15 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>36;89;105#97;11;93;94#58;107#30#</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>"sys_flqcj",</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>10#42#</t>
+    <t>"act_045_cqg",</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>113;89;105#97;11;93;94#58;107#30#</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -1335,7 +1329,39 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>"act_045_cqg",</t>
+    <t>"sys_xsfl",</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sys_011_yueka_new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>42#10#</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1522,7 +1548,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1608,9 +1634,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3053,11 +3076,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B63" sqref="B63"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3131,8 +3154,8 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="30" t="s">
-        <v>364</v>
+      <c r="B4" s="29" t="s">
+        <v>361</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
@@ -3241,8 +3264,8 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>109</v>
+      <c r="B10" s="29" t="s">
+        <v>365</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -3252,15 +3275,15 @@
         <v>9</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>111</v>
+      <c r="B11" s="29" t="s">
+        <v>366</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -3270,7 +3293,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -3278,7 +3301,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
@@ -3288,7 +3311,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -3296,7 +3319,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
@@ -3306,7 +3329,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -3314,7 +3337,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C14" s="5">
         <v>0</v>
@@ -3324,7 +3347,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -3332,7 +3355,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C15" s="5">
         <v>0</v>
@@ -3342,7 +3365,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -3350,7 +3373,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C16" s="5">
         <v>0</v>
@@ -3360,7 +3383,7 @@
         <v>15</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -3368,7 +3391,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
@@ -3378,7 +3401,7 @@
         <v>16</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -3386,7 +3409,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C18" s="5">
         <v>0</v>
@@ -3396,7 +3419,7 @@
         <v>17</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -3404,7 +3427,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
@@ -3414,7 +3437,7 @@
         <v>18</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -3422,7 +3445,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
@@ -3432,7 +3455,7 @@
         <v>19</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -3440,7 +3463,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
@@ -3450,7 +3473,7 @@
         <v>20</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -3458,7 +3481,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C22" s="5">
         <v>0</v>
@@ -3468,7 +3491,7 @@
         <v>21</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -3476,7 +3499,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C23" s="5">
         <v>0</v>
@@ -3486,7 +3509,7 @@
         <v>22</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -3494,7 +3517,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C24" s="5">
         <v>1</v>
@@ -3504,7 +3527,7 @@
         <v>23</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -3512,7 +3535,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C25" s="5">
         <v>0</v>
@@ -3522,7 +3545,7 @@
         <v>24</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -3530,7 +3553,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C26" s="5">
         <v>1</v>
@@ -3540,7 +3563,7 @@
         <v>25</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -3548,7 +3571,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C27" s="5">
         <v>1</v>
@@ -3558,7 +3581,7 @@
         <v>26</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -3566,7 +3589,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C28" s="5">
         <v>1</v>
@@ -3576,7 +3599,7 @@
         <v>27</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -3584,7 +3607,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C29" s="5">
         <v>0</v>
@@ -3594,7 +3617,7 @@
         <v>28</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -3602,7 +3625,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C30" s="5">
         <v>1</v>
@@ -3612,7 +3635,7 @@
         <v>29</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -3620,7 +3643,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C31" s="5">
         <v>1</v>
@@ -3630,7 +3653,7 @@
         <v>30</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -3638,7 +3661,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C32" s="5">
         <v>0</v>
@@ -3648,7 +3671,7 @@
         <v>31</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -3656,7 +3679,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C33" s="5">
         <v>0</v>
@@ -3666,7 +3689,7 @@
         <v>32</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -3674,7 +3697,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C34" s="5">
         <v>1</v>
@@ -3684,7 +3707,7 @@
         <v>33</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -3692,7 +3715,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C35" s="5">
         <v>1</v>
@@ -3702,7 +3725,7 @@
         <v>34</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -3710,7 +3733,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C36" s="5">
         <v>1</v>
@@ -3720,7 +3743,7 @@
         <v>35</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -3728,7 +3751,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C37" s="5">
         <v>1</v>
@@ -3738,7 +3761,7 @@
         <v>36</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -3746,7 +3769,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C38" s="5">
         <v>1</v>
@@ -3756,7 +3779,7 @@
         <v>37</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -3764,7 +3787,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C39" s="5">
         <v>1</v>
@@ -3774,7 +3797,7 @@
         <v>38</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -3782,7 +3805,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C40" s="5">
         <v>1</v>
@@ -3792,7 +3815,7 @@
         <v>39</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -3800,7 +3823,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C41" s="5">
         <v>1</v>
@@ -3810,7 +3833,7 @@
         <v>40</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -3818,7 +3841,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -3827,7 +3850,7 @@
         <v>41</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -3835,7 +3858,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -3844,7 +3867,7 @@
         <v>42</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -3852,7 +3875,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -3861,7 +3884,7 @@
         <v>43</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -3869,7 +3892,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -3878,7 +3901,7 @@
         <v>44</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -3886,7 +3909,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -3895,7 +3918,7 @@
         <v>45</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -3903,7 +3926,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -3912,7 +3935,7 @@
         <v>46</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -3920,7 +3943,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -3929,7 +3952,7 @@
         <v>47</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -3937,7 +3960,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -3946,7 +3969,7 @@
         <v>48</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -3954,7 +3977,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -3963,7 +3986,7 @@
         <v>49</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -3971,7 +3994,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -3980,7 +4003,7 @@
         <v>50</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -3988,7 +4011,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -3997,7 +4020,7 @@
         <v>51</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -4005,7 +4028,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -4014,7 +4037,7 @@
         <v>52</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -4022,7 +4045,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C54" s="5">
         <v>1</v>
@@ -4032,7 +4055,7 @@
         <v>53</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -4040,7 +4063,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -4049,7 +4072,7 @@
         <v>54</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -4057,7 +4080,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -4066,7 +4089,7 @@
         <v>55</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -4074,7 +4097,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -4083,7 +4106,7 @@
         <v>56</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -4091,7 +4114,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -4100,7 +4123,7 @@
         <v>57</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -4108,7 +4131,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -4117,7 +4140,7 @@
         <v>58</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -4125,7 +4148,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -4134,7 +4157,7 @@
         <v>59</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -4142,7 +4165,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -4151,15 +4174,15 @@
         <v>60</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="33" t="s">
-        <v>367</v>
+      <c r="B62" s="32" t="s">
+        <v>362</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -4168,7 +4191,7 @@
         <v>61</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -4176,7 +4199,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -4185,7 +4208,7 @@
         <v>62</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -4193,7 +4216,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -4202,7 +4225,7 @@
         <v>63</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -4210,7 +4233,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -4219,7 +4242,7 @@
         <v>64</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -4227,7 +4250,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -4236,7 +4259,7 @@
         <v>65</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -4244,7 +4267,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -4253,7 +4276,7 @@
         <v>66</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -4261,7 +4284,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -4270,7 +4293,7 @@
         <v>67</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -4278,7 +4301,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -4287,7 +4310,7 @@
         <v>68</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -4295,7 +4318,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -4304,7 +4327,7 @@
         <v>69</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -4312,7 +4335,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -4321,7 +4344,7 @@
         <v>70</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -4329,7 +4352,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -4338,7 +4361,7 @@
         <v>71</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -4346,7 +4369,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -4355,7 +4378,7 @@
         <v>72</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -4363,7 +4386,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -4372,7 +4395,7 @@
         <v>73</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -4380,7 +4403,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -4389,7 +4412,7 @@
         <v>74</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -4397,7 +4420,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -4406,7 +4429,7 @@
         <v>75</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -4414,7 +4437,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -4423,7 +4446,7 @@
         <v>76</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -4431,7 +4454,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -4440,7 +4463,7 @@
         <v>77</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -4448,7 +4471,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -4457,7 +4480,7 @@
         <v>78</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -4465,7 +4488,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -4474,7 +4497,7 @@
         <v>79</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -4482,7 +4505,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -4491,7 +4514,7 @@
         <v>80</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -4499,7 +4522,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -4508,7 +4531,7 @@
         <v>81</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -4516,7 +4539,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -4525,7 +4548,7 @@
         <v>82</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -4533,7 +4556,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -4542,7 +4565,7 @@
         <v>83</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -4550,7 +4573,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -4559,7 +4582,7 @@
         <v>84</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -4567,7 +4590,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -4576,7 +4599,7 @@
         <v>85</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -4584,7 +4607,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -4593,7 +4616,7 @@
         <v>86</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -4601,19 +4624,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E88">
         <v>87</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -4621,7 +4644,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -4630,7 +4653,7 @@
         <v>88</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -4638,7 +4661,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -4647,7 +4670,7 @@
         <v>89</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -4655,7 +4678,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -4664,7 +4687,7 @@
         <v>90</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -4672,7 +4695,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -4681,7 +4704,7 @@
         <v>91</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -4689,7 +4712,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -4698,7 +4721,7 @@
         <v>92</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -4706,7 +4729,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -4715,7 +4738,7 @@
         <v>93</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -4723,7 +4746,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -4732,7 +4755,7 @@
         <v>94</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -4740,7 +4763,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -4749,7 +4772,7 @@
         <v>95</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -4757,7 +4780,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -4766,7 +4789,7 @@
         <v>96</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -4774,7 +4797,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -4784,7 +4807,7 @@
         <v>97</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -4792,7 +4815,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -4801,7 +4824,7 @@
         <v>98</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -4809,7 +4832,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -4818,7 +4841,7 @@
         <v>99</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -4826,7 +4849,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -4835,7 +4858,7 @@
         <v>100</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -4843,19 +4866,19 @@
         <v>101</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E102">
         <v>101</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4863,7 +4886,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C103" s="1">
         <v>1</v>
@@ -4872,7 +4895,7 @@
         <v>102</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -4880,7 +4903,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -4889,7 +4912,7 @@
         <v>103</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4897,7 +4920,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C105" s="2">
         <v>1</v>
@@ -4906,7 +4929,7 @@
         <v>104</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -4914,19 +4937,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E106">
         <v>105</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -4934,7 +4957,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -4943,7 +4966,7 @@
         <v>106</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -4951,7 +4974,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -4960,7 +4983,7 @@
         <v>107</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -4968,7 +4991,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -4977,7 +5000,7 @@
         <v>108</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -4985,7 +5008,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -4994,7 +5017,7 @@
         <v>109</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -5002,7 +5025,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -5011,7 +5034,7 @@
         <v>110</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -5019,7 +5042,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -5028,7 +5051,7 @@
         <v>111</v>
       </c>
       <c r="F112" s="14" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -5036,7 +5059,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -5045,7 +5068,7 @@
         <v>112</v>
       </c>
       <c r="F113" s="14" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -5053,7 +5076,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -5062,7 +5085,7 @@
         <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -5070,7 +5093,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -5079,7 +5102,7 @@
         <v>114</v>
       </c>
       <c r="F115" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -5087,19 +5110,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -5107,13 +5130,13 @@
         <v>116</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E117">
         <v>116</v>
@@ -5127,7 +5150,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -5136,7 +5159,7 @@
         <v>117</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -5144,7 +5167,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -5153,7 +5176,7 @@
         <v>118</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -5161,7 +5184,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -5170,7 +5193,7 @@
         <v>119</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -5178,7 +5201,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -5187,7 +5210,7 @@
         <v>120</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -5195,7 +5218,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -5204,7 +5227,7 @@
         <v>121</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -5212,7 +5235,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -5221,7 +5244,7 @@
         <v>122</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -5229,7 +5252,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -5238,7 +5261,7 @@
         <v>123</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -5246,7 +5269,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -5255,7 +5278,7 @@
         <v>124</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -5263,7 +5286,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -5272,7 +5295,7 @@
         <v>125</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -5280,7 +5303,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -5289,7 +5312,7 @@
         <v>126</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -5297,7 +5320,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -5306,7 +5329,7 @@
         <v>127</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -5314,19 +5337,19 @@
         <v>128</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
       <c r="D129" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E129">
         <v>128</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
@@ -5334,19 +5357,19 @@
         <v>129</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
       <c r="D130" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E130">
         <v>129</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
@@ -5354,19 +5377,19 @@
         <v>130</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C131" s="5">
         <v>1</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E131" s="5">
         <v>130</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
@@ -5374,19 +5397,19 @@
         <v>131</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C132" s="5">
         <v>1</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E132" s="5">
         <v>131</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
@@ -5394,7 +5417,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C133" s="5">
         <v>1</v>
@@ -5403,7 +5426,7 @@
         <v>132</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -5411,7 +5434,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C134" s="5">
         <v>1</v>
@@ -5420,7 +5443,7 @@
         <v>133</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5428,19 +5451,19 @@
         <v>134</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
       <c r="D135" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E135">
         <v>134</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
@@ -5448,19 +5471,19 @@
         <v>135</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C136">
         <v>1</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E136">
         <v>135</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
@@ -5468,19 +5491,19 @@
         <v>136</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E137">
         <v>136</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5488,19 +5511,19 @@
         <v>137</v>
       </c>
       <c r="B138" s="16" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
       <c r="D138" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E138">
         <v>137</v>
       </c>
       <c r="F138" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5508,19 +5531,19 @@
         <v>138</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
       <c r="D139" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E139">
         <v>138</v>
       </c>
       <c r="F139" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
@@ -5528,7 +5551,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -5538,7 +5561,7 @@
         <v>139</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -5903,8 +5926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J140"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5941,8 +5964,8 @@
       <c r="B2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="31" t="s">
-        <v>365</v>
+      <c r="C2" s="30" t="s">
+        <v>367</v>
       </c>
       <c r="D2" s="5">
         <f>'all_enter|所有按钮入口'!E2</f>
@@ -5960,7 +5983,7 @@
       <c r="B3" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="30" t="s">
         <v>363</v>
       </c>
       <c r="D3" s="5">
@@ -5983,8 +6006,8 @@
       <c r="B4" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="32" t="s">
-        <v>366</v>
+      <c r="C4" s="31" t="s">
+        <v>364</v>
       </c>
       <c r="D4" s="5">
         <f>'all_enter|所有按钮入口'!E4</f>

--- a/config_hlw/game_enter_btn_config.xlsx
+++ b/config_hlw/game_enter_btn_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="820" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="820" firstSheet="20" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -970,9 +970,6 @@
     <t>师徒系统</t>
   </si>
   <si>
-    <t>"act_022_qflb",</t>
-  </si>
-  <si>
     <t>"sys_qd",</t>
   </si>
   <si>
@@ -1362,6 +1359,33 @@
   </si>
   <si>
     <t>42#10#</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"act_0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>44</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_qflb",</t>
+    </r>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -3076,11 +3100,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3155,7 +3179,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
@@ -3265,7 +3289,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -3283,7 +3307,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -3751,7 +3775,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C37" s="5">
         <v>1</v>
@@ -4182,7 +4206,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -4572,8 +4596,8 @@
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="9" t="s">
-        <v>254</v>
+      <c r="B85" s="32" t="s">
+        <v>367</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -4590,7 +4614,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -4599,7 +4623,7 @@
         <v>85</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -4607,7 +4631,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -4616,7 +4640,7 @@
         <v>86</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -4624,19 +4648,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" s="5" t="s">
         <v>259</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>260</v>
       </c>
       <c r="E88">
         <v>87</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -4644,7 +4668,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -4653,7 +4677,7 @@
         <v>88</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -4661,7 +4685,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -4670,7 +4694,7 @@
         <v>89</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -4678,7 +4702,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -4687,7 +4711,7 @@
         <v>90</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -4695,7 +4719,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -4704,7 +4728,7 @@
         <v>91</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -4712,7 +4736,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -4721,7 +4745,7 @@
         <v>92</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -4729,7 +4753,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -4738,7 +4762,7 @@
         <v>93</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -4746,7 +4770,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -4755,7 +4779,7 @@
         <v>94</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -4763,7 +4787,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -4772,7 +4796,7 @@
         <v>95</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -4780,7 +4804,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -4789,7 +4813,7 @@
         <v>96</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -4797,7 +4821,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -4807,7 +4831,7 @@
         <v>97</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -4815,7 +4839,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -4832,7 +4856,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -4841,7 +4865,7 @@
         <v>99</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -4849,7 +4873,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -4858,7 +4882,7 @@
         <v>100</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -4866,19 +4890,19 @@
         <v>101</v>
       </c>
       <c r="B102" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102" s="6" t="s">
         <v>287</v>
-      </c>
-      <c r="C102">
-        <v>1</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>288</v>
       </c>
       <c r="E102">
         <v>101</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4886,7 +4910,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C103" s="1">
         <v>1</v>
@@ -4895,7 +4919,7 @@
         <v>102</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -4903,7 +4927,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -4912,7 +4936,7 @@
         <v>103</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4920,7 +4944,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C105" s="2">
         <v>1</v>
@@ -4929,7 +4953,7 @@
         <v>104</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -4937,19 +4961,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106" s="5" t="s">
         <v>296</v>
-      </c>
-      <c r="C106">
-        <v>1</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>297</v>
       </c>
       <c r="E106">
         <v>105</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -4957,7 +4981,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -4966,7 +4990,7 @@
         <v>106</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -4974,7 +4998,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -4983,7 +5007,7 @@
         <v>107</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -4991,7 +5015,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -5000,7 +5024,7 @@
         <v>108</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -5008,7 +5032,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -5017,7 +5041,7 @@
         <v>109</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -5025,7 +5049,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -5034,7 +5058,7 @@
         <v>110</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -5042,7 +5066,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -5051,7 +5075,7 @@
         <v>111</v>
       </c>
       <c r="F112" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -5059,7 +5083,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -5068,7 +5092,7 @@
         <v>112</v>
       </c>
       <c r="F113" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -5076,7 +5100,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -5085,7 +5109,7 @@
         <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -5093,7 +5117,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -5102,7 +5126,7 @@
         <v>114</v>
       </c>
       <c r="F115" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -5110,19 +5134,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -5130,13 +5154,13 @@
         <v>116</v>
       </c>
       <c r="B117" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" s="5" t="s">
         <v>319</v>
-      </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>320</v>
       </c>
       <c r="E117">
         <v>116</v>
@@ -5150,7 +5174,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -5159,7 +5183,7 @@
         <v>117</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -5167,7 +5191,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -5176,7 +5200,7 @@
         <v>118</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -5184,7 +5208,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -5193,7 +5217,7 @@
         <v>119</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -5201,7 +5225,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -5210,7 +5234,7 @@
         <v>120</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -5218,7 +5242,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -5227,7 +5251,7 @@
         <v>121</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -5235,7 +5259,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -5244,7 +5268,7 @@
         <v>122</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -5252,7 +5276,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -5261,7 +5285,7 @@
         <v>123</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -5269,7 +5293,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -5278,7 +5302,7 @@
         <v>124</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -5286,7 +5310,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -5295,7 +5319,7 @@
         <v>125</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -5303,7 +5327,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -5312,7 +5336,7 @@
         <v>126</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -5320,7 +5344,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -5329,7 +5353,7 @@
         <v>127</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -5337,19 +5361,19 @@
         <v>128</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
       <c r="D129" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E129">
         <v>128</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
@@ -5357,19 +5381,19 @@
         <v>129</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
       <c r="D130" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E130">
         <v>129</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
@@ -5383,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E131" s="5">
         <v>130</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
@@ -5403,13 +5427,13 @@
         <v>1</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E132" s="5">
         <v>131</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
@@ -5417,7 +5441,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C133" s="5">
         <v>1</v>
@@ -5426,7 +5450,7 @@
         <v>132</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -5434,7 +5458,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C134" s="5">
         <v>1</v>
@@ -5443,7 +5467,7 @@
         <v>133</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5451,19 +5475,19 @@
         <v>134</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
       <c r="D135" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E135">
         <v>134</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
@@ -5471,19 +5495,19 @@
         <v>135</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C136">
         <v>1</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E136">
         <v>135</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
@@ -5491,19 +5515,19 @@
         <v>136</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E137">
         <v>136</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5511,19 +5535,19 @@
         <v>137</v>
       </c>
       <c r="B138" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138" t="s">
         <v>356</v>
-      </c>
-      <c r="C138">
-        <v>1</v>
-      </c>
-      <c r="D138" t="s">
-        <v>357</v>
       </c>
       <c r="E138">
         <v>137</v>
       </c>
       <c r="F138" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5531,19 +5555,19 @@
         <v>138</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
       <c r="D139" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E139">
         <v>138</v>
       </c>
       <c r="F139" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
@@ -5551,7 +5575,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -5926,7 +5950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -5965,7 +5989,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D2" s="5">
         <f>'all_enter|所有按钮入口'!E2</f>
@@ -5984,7 +6008,7 @@
         <v>39</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D3" s="5">
         <f>'all_enter|所有按钮入口'!E3</f>
@@ -6007,7 +6031,7 @@
         <v>40</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D4" s="5">
         <f>'all_enter|所有按钮入口'!E4</f>

--- a/config_hlw/game_enter_btn_config.xlsx
+++ b/config_hlw/game_enter_btn_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_hlw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_hlw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="820" firstSheet="20" activeTab="27"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="820" firstSheet="17" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -31,15 +31,16 @@
     <sheet name="fishing_match_bm|捕鱼比赛报名" sheetId="20" r:id="rId17"/>
     <sheet name="fishing3d_game|3D捕鱼" sheetId="24" r:id="rId18"/>
     <sheet name="fishing3d_hall|3D捕鱼大厅" sheetId="25" r:id="rId19"/>
-    <sheet name="ttl_config|弹弹乐" sheetId="26" r:id="rId20"/>
-    <sheet name="crazy_fish_game|疯狂捕鱼" sheetId="27" r:id="rId21"/>
-    <sheet name="lwzb_game|龙王争霸" sheetId="32" r:id="rId22"/>
-    <sheet name="lwzb_game_hall|龙王争霸大厅" sheetId="33" r:id="rId23"/>
-    <sheet name="xxlxy_game|西游消消乐" sheetId="34" r:id="rId24"/>
-    <sheet name="year_panel|活动入口内" sheetId="31" r:id="rId25"/>
-    <sheet name="jchd_config|精彩活动" sheetId="35" r:id="rId26"/>
-    <sheet name="hqjb_config|获取金币" sheetId="36" r:id="rId27"/>
-    <sheet name="all_enter|所有按钮入口" sheetId="10" r:id="rId28"/>
+    <sheet name="fishing3d_bosshall|捕鱼金币场大厅" sheetId="37" r:id="rId20"/>
+    <sheet name="ttl_config|弹弹乐" sheetId="26" r:id="rId21"/>
+    <sheet name="crazy_fish_game|疯狂捕鱼" sheetId="27" r:id="rId22"/>
+    <sheet name="lwzb_game|龙王争霸" sheetId="32" r:id="rId23"/>
+    <sheet name="lwzb_game_hall|龙王争霸大厅" sheetId="33" r:id="rId24"/>
+    <sheet name="xxlxy_game|西游消消乐" sheetId="34" r:id="rId25"/>
+    <sheet name="year_panel|活动入口内" sheetId="31" r:id="rId26"/>
+    <sheet name="jchd_config|精彩活动" sheetId="35" r:id="rId27"/>
+    <sheet name="hqjb_config|获取金币" sheetId="36" r:id="rId28"/>
+    <sheet name="all_enter|所有按钮入口" sheetId="10" r:id="rId29"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -81,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="361">
   <si>
     <t>id|行号</t>
   </si>
@@ -394,60 +395,6 @@
     <t>127#</t>
   </si>
   <si>
-    <t>63#</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>enter</t>
-    </r>
-  </si>
-  <si>
-    <t>108#104#95#72#</t>
-  </si>
-  <si>
-    <t>center2</t>
-  </si>
-  <si>
-    <t>71#</t>
-  </si>
-  <si>
-    <t>center3</t>
-  </si>
-  <si>
-    <t>75#</t>
-  </si>
-  <si>
-    <t>center4</t>
-  </si>
-  <si>
-    <t>76#67</t>
-  </si>
-  <si>
-    <t>center5</t>
-  </si>
-  <si>
-    <t>77#68</t>
-  </si>
-  <si>
     <t>101;11;93#</t>
   </si>
   <si>
@@ -1385,6 +1332,35 @@
         <scheme val="minor"/>
       </rPr>
       <t>_qflb",</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>right_top</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>42#10#108#</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>right_top</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2#10#108#</t>
     </r>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -2542,10 +2518,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2573,87 +2549,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>33</v>
+        <v>357</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>72</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>73</v>
-      </c>
+      <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>74</v>
-      </c>
+    </row>
+    <row r="4" spans="1:4" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B4" s="21"/>
+      <c r="C4" s="12"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:4" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B10" s="21"/>
-      <c r="C10" s="12"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C11" s="5"/>
+      <c r="C5" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -2756,6 +2667,47 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>360</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2783,7 +2735,7 @@
         <v>33</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2792,7 +2744,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -2830,7 +2782,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -2869,7 +2821,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -2907,7 +2859,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -2970,7 +2922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -2999,7 +2951,7 @@
         <v>39</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -3008,7 +2960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -3037,10 +2989,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3052,7 +3004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -3081,10 +3033,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3096,11 +3048,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -3120,22 +3072,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -3143,7 +3095,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C2" s="5">
         <v>0</v>
@@ -3153,7 +3105,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -3161,7 +3113,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C3" s="5">
         <v>0</v>
@@ -3171,7 +3123,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -3179,19 +3131,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="E4" s="5">
         <v>3</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -3199,7 +3151,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
@@ -3209,7 +3161,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -3217,7 +3169,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
@@ -3227,7 +3179,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -3235,7 +3187,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -3245,7 +3197,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -3253,7 +3205,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
@@ -3263,7 +3215,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -3271,7 +3223,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C9" s="5">
         <v>0</v>
@@ -3281,7 +3233,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -3289,7 +3241,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -3299,7 +3251,7 @@
         <v>9</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -3307,7 +3259,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -3317,7 +3269,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -3325,7 +3277,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
@@ -3335,7 +3287,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -3343,7 +3295,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
@@ -3353,7 +3305,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -3361,7 +3313,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C14" s="5">
         <v>0</v>
@@ -3371,7 +3323,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -3379,7 +3331,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C15" s="5">
         <v>0</v>
@@ -3389,7 +3341,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -3397,7 +3349,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C16" s="5">
         <v>0</v>
@@ -3407,7 +3359,7 @@
         <v>15</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -3415,7 +3367,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
@@ -3425,7 +3377,7 @@
         <v>16</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -3433,7 +3385,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C18" s="5">
         <v>0</v>
@@ -3443,7 +3395,7 @@
         <v>17</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -3451,7 +3403,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
@@ -3461,7 +3413,7 @@
         <v>18</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -3469,7 +3421,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
@@ -3479,7 +3431,7 @@
         <v>19</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -3487,7 +3439,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
@@ -3497,7 +3449,7 @@
         <v>20</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -3505,7 +3457,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C22" s="5">
         <v>0</v>
@@ -3515,7 +3467,7 @@
         <v>21</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -3523,7 +3475,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C23" s="5">
         <v>0</v>
@@ -3533,7 +3485,7 @@
         <v>22</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -3541,7 +3493,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C24" s="5">
         <v>1</v>
@@ -3551,7 +3503,7 @@
         <v>23</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -3559,7 +3511,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C25" s="5">
         <v>0</v>
@@ -3569,7 +3521,7 @@
         <v>24</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -3577,7 +3529,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C26" s="5">
         <v>1</v>
@@ -3587,7 +3539,7 @@
         <v>25</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -3595,7 +3547,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C27" s="5">
         <v>1</v>
@@ -3605,7 +3557,7 @@
         <v>26</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -3613,7 +3565,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C28" s="5">
         <v>1</v>
@@ -3623,7 +3575,7 @@
         <v>27</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -3631,7 +3583,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C29" s="5">
         <v>0</v>
@@ -3641,7 +3593,7 @@
         <v>28</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -3649,7 +3601,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C30" s="5">
         <v>1</v>
@@ -3659,7 +3611,7 @@
         <v>29</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -3667,7 +3619,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C31" s="5">
         <v>1</v>
@@ -3677,7 +3629,7 @@
         <v>30</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -3685,7 +3637,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C32" s="5">
         <v>0</v>
@@ -3695,7 +3647,7 @@
         <v>31</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -3703,7 +3655,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C33" s="5">
         <v>0</v>
@@ -3713,7 +3665,7 @@
         <v>32</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -3721,7 +3673,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C34" s="5">
         <v>1</v>
@@ -3731,7 +3683,7 @@
         <v>33</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -3739,7 +3691,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C35" s="5">
         <v>1</v>
@@ -3749,7 +3701,7 @@
         <v>34</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -3757,7 +3709,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C36" s="5">
         <v>1</v>
@@ -3767,7 +3719,7 @@
         <v>35</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -3775,7 +3727,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="C37" s="5">
         <v>1</v>
@@ -3785,7 +3737,7 @@
         <v>36</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -3793,7 +3745,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C38" s="5">
         <v>1</v>
@@ -3803,7 +3755,7 @@
         <v>37</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -3811,7 +3763,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="C39" s="5">
         <v>1</v>
@@ -3821,7 +3773,7 @@
         <v>38</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -3829,7 +3781,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C40" s="5">
         <v>1</v>
@@ -3839,7 +3791,7 @@
         <v>39</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -3847,7 +3799,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C41" s="5">
         <v>1</v>
@@ -3857,7 +3809,7 @@
         <v>40</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -3865,7 +3817,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -3874,7 +3826,7 @@
         <v>41</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -3882,7 +3834,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -3891,7 +3843,7 @@
         <v>42</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -3899,7 +3851,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -3908,7 +3860,7 @@
         <v>43</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -3916,7 +3868,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -3925,7 +3877,7 @@
         <v>44</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -3933,7 +3885,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -3942,7 +3894,7 @@
         <v>45</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -3950,7 +3902,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -3959,7 +3911,7 @@
         <v>46</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -3967,7 +3919,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -3976,7 +3928,7 @@
         <v>47</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -3984,7 +3936,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -3993,7 +3945,7 @@
         <v>48</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -4001,7 +3953,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -4010,7 +3962,7 @@
         <v>49</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -4018,7 +3970,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -4027,7 +3979,7 @@
         <v>50</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -4035,7 +3987,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -4044,7 +3996,7 @@
         <v>51</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -4052,7 +4004,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -4061,7 +4013,7 @@
         <v>52</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -4069,7 +4021,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C54" s="5">
         <v>1</v>
@@ -4079,7 +4031,7 @@
         <v>53</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -4087,7 +4039,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -4096,7 +4048,7 @@
         <v>54</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -4104,7 +4056,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -4113,7 +4065,7 @@
         <v>55</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -4121,7 +4073,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -4130,7 +4082,7 @@
         <v>56</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -4138,7 +4090,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -4147,7 +4099,7 @@
         <v>57</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -4155,7 +4107,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -4164,7 +4116,7 @@
         <v>58</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -4172,7 +4124,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -4181,7 +4133,7 @@
         <v>59</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -4189,7 +4141,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -4198,7 +4150,7 @@
         <v>60</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -4206,7 +4158,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -4215,7 +4167,7 @@
         <v>61</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -4223,7 +4175,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -4232,7 +4184,7 @@
         <v>62</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -4240,7 +4192,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -4249,7 +4201,7 @@
         <v>63</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -4257,7 +4209,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -4266,7 +4218,7 @@
         <v>64</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -4274,7 +4226,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -4283,7 +4235,7 @@
         <v>65</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -4291,7 +4243,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -4300,7 +4252,7 @@
         <v>66</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -4308,7 +4260,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -4317,7 +4269,7 @@
         <v>67</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -4325,7 +4277,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -4334,7 +4286,7 @@
         <v>68</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -4342,7 +4294,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -4351,7 +4303,7 @@
         <v>69</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -4359,7 +4311,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -4368,7 +4320,7 @@
         <v>70</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -4376,7 +4328,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -4385,7 +4337,7 @@
         <v>71</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -4393,7 +4345,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -4402,7 +4354,7 @@
         <v>72</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -4410,7 +4362,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -4419,7 +4371,7 @@
         <v>73</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -4427,7 +4379,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -4436,7 +4388,7 @@
         <v>74</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -4444,7 +4396,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -4453,7 +4405,7 @@
         <v>75</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -4461,7 +4413,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -4470,7 +4422,7 @@
         <v>76</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -4478,7 +4430,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -4487,7 +4439,7 @@
         <v>77</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -4495,7 +4447,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -4504,7 +4456,7 @@
         <v>78</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -4512,7 +4464,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -4521,7 +4473,7 @@
         <v>79</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -4529,7 +4481,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -4538,7 +4490,7 @@
         <v>80</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -4546,7 +4498,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -4555,7 +4507,7 @@
         <v>81</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -4563,7 +4515,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -4572,7 +4524,7 @@
         <v>82</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -4580,7 +4532,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -4589,7 +4541,7 @@
         <v>83</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -4597,7 +4549,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="32" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -4606,7 +4558,7 @@
         <v>84</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -4614,7 +4566,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -4623,7 +4575,7 @@
         <v>85</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -4631,7 +4583,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -4640,7 +4592,7 @@
         <v>86</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -4648,19 +4600,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="E88">
         <v>87</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -4668,7 +4620,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -4677,7 +4629,7 @@
         <v>88</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -4685,7 +4637,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -4694,7 +4646,7 @@
         <v>89</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -4702,7 +4654,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -4711,7 +4663,7 @@
         <v>90</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -4719,7 +4671,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -4728,7 +4680,7 @@
         <v>91</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -4736,7 +4688,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -4745,7 +4697,7 @@
         <v>92</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -4753,7 +4705,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -4762,7 +4714,7 @@
         <v>93</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -4770,7 +4722,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -4779,7 +4731,7 @@
         <v>94</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -4787,7 +4739,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -4796,7 +4748,7 @@
         <v>95</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -4804,7 +4756,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -4813,7 +4765,7 @@
         <v>96</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -4821,7 +4773,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -4831,7 +4783,7 @@
         <v>97</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -4839,7 +4791,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -4848,7 +4800,7 @@
         <v>98</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -4856,7 +4808,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -4865,7 +4817,7 @@
         <v>99</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -4873,7 +4825,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -4882,7 +4834,7 @@
         <v>100</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -4890,19 +4842,19 @@
         <v>101</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="E102">
         <v>101</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4910,7 +4862,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="C103" s="1">
         <v>1</v>
@@ -4919,7 +4871,7 @@
         <v>102</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -4927,7 +4879,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -4936,7 +4888,7 @@
         <v>103</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4944,7 +4896,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="C105" s="2">
         <v>1</v>
@@ -4953,7 +4905,7 @@
         <v>104</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -4961,19 +4913,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="E106">
         <v>105</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -4981,7 +4933,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -4990,7 +4942,7 @@
         <v>106</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -4998,7 +4950,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -5007,7 +4959,7 @@
         <v>107</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5015,7 +4967,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -5024,7 +4976,7 @@
         <v>108</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -5032,7 +4984,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -5041,7 +4993,7 @@
         <v>109</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -5049,7 +5001,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -5058,7 +5010,7 @@
         <v>110</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -5066,7 +5018,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -5075,7 +5027,7 @@
         <v>111</v>
       </c>
       <c r="F112" s="14" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -5083,7 +5035,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -5092,7 +5044,7 @@
         <v>112</v>
       </c>
       <c r="F113" s="14" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -5100,7 +5052,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -5109,7 +5061,7 @@
         <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -5117,7 +5069,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -5126,7 +5078,7 @@
         <v>114</v>
       </c>
       <c r="F115" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -5134,19 +5086,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -5154,19 +5106,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="E117">
         <v>116</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5174,7 +5126,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -5183,7 +5135,7 @@
         <v>117</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -5191,7 +5143,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -5200,7 +5152,7 @@
         <v>118</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -5208,7 +5160,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -5217,7 +5169,7 @@
         <v>119</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -5225,7 +5177,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -5234,7 +5186,7 @@
         <v>120</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -5242,7 +5194,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -5251,7 +5203,7 @@
         <v>121</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -5259,7 +5211,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -5268,7 +5220,7 @@
         <v>122</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -5276,7 +5228,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -5285,7 +5237,7 @@
         <v>123</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -5293,7 +5245,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -5302,7 +5254,7 @@
         <v>124</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -5310,7 +5262,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -5319,7 +5271,7 @@
         <v>125</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -5327,7 +5279,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -5336,7 +5288,7 @@
         <v>126</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -5344,7 +5296,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -5353,7 +5305,7 @@
         <v>127</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -5361,19 +5313,19 @@
         <v>128</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
       <c r="D129" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="E129">
         <v>128</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
@@ -5381,19 +5333,19 @@
         <v>129</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
       <c r="D130" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="E130">
         <v>129</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
@@ -5401,19 +5353,19 @@
         <v>130</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C131" s="5">
         <v>1</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="E131" s="5">
         <v>130</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
@@ -5421,19 +5373,19 @@
         <v>131</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C132" s="5">
         <v>1</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="E132" s="5">
         <v>131</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
@@ -5441,7 +5393,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="C133" s="5">
         <v>1</v>
@@ -5450,7 +5402,7 @@
         <v>132</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -5458,7 +5410,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="C134" s="5">
         <v>1</v>
@@ -5467,7 +5419,7 @@
         <v>133</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5475,19 +5427,19 @@
         <v>134</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
       <c r="D135" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="E135">
         <v>134</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
@@ -5495,19 +5447,19 @@
         <v>135</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C136">
         <v>1</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="E136">
         <v>135</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
@@ -5515,19 +5467,19 @@
         <v>136</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="E137">
         <v>136</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5535,19 +5487,19 @@
         <v>137</v>
       </c>
       <c r="B138" s="16" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
       <c r="D138" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="E138">
         <v>137</v>
       </c>
       <c r="F138" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5555,19 +5507,19 @@
         <v>138</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
       <c r="D139" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="E139">
         <v>138</v>
       </c>
       <c r="F139" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
@@ -5575,7 +5527,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -5585,7 +5537,7 @@
         <v>139</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5989,7 +5941,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="D2" s="5">
         <f>'all_enter|所有按钮入口'!E2</f>
@@ -6008,7 +5960,7 @@
         <v>39</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="D3" s="5">
         <f>'all_enter|所有按钮入口'!E3</f>
@@ -6031,7 +5983,7 @@
         <v>40</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="D4" s="5">
         <f>'all_enter|所有按钮入口'!E4</f>

--- a/config_hlw/game_enter_btn_config.xlsx
+++ b/config_hlw/game_enter_btn_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="820" firstSheet="17" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="820" firstSheet="17" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="361">
   <si>
     <t>id|行号</t>
   </si>
@@ -322,9 +322,6 @@
   </si>
   <si>
     <t>|说明</t>
-  </si>
-  <si>
-    <t>111#112#53#79#36;113;89;131;#</t>
   </si>
   <si>
     <t>82#</t>
@@ -1362,6 +1359,10 @@
       </rPr>
       <t>2#10#108#</t>
     </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>111#112#72#11#</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -2395,8 +2396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2428,7 +2429,7 @@
         <v>28</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>59</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2439,7 +2440,7 @@
         <v>30</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2447,10 +2448,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="F4" s="5"/>
     </row>
@@ -2459,10 +2460,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -2470,21 +2471,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>34</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="17">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2492,10 +2491,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2503,16 +2502,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2549,10 +2548,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>357</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2669,7 +2668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -2694,10 +2693,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="29" t="s">
+        <v>358</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>359</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -2735,7 +2734,7 @@
         <v>33</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2951,7 +2950,7 @@
         <v>39</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2989,10 +2988,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3033,10 +3032,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3072,22 +3071,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -3095,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" s="5">
         <v>0</v>
@@ -3105,7 +3104,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -3113,7 +3112,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" s="5">
         <v>0</v>
@@ -3123,7 +3122,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -3131,19 +3130,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E4" s="5">
         <v>3</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -3151,7 +3150,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
@@ -3161,7 +3160,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -3169,7 +3168,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
@@ -3179,7 +3178,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -3187,7 +3186,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -3197,7 +3196,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -3205,7 +3204,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
@@ -3215,7 +3214,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -3223,7 +3222,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" s="5">
         <v>0</v>
@@ -3233,7 +3232,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -3241,7 +3240,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -3251,7 +3250,7 @@
         <v>9</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -3259,7 +3258,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -3269,7 +3268,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -3277,7 +3276,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
@@ -3287,7 +3286,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -3295,7 +3294,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
@@ -3305,7 +3304,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -3313,7 +3312,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C14" s="5">
         <v>0</v>
@@ -3323,7 +3322,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -3331,7 +3330,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C15" s="5">
         <v>0</v>
@@ -3341,7 +3340,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -3349,7 +3348,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C16" s="5">
         <v>0</v>
@@ -3359,7 +3358,7 @@
         <v>15</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -3367,7 +3366,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
@@ -3377,7 +3376,7 @@
         <v>16</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -3385,7 +3384,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C18" s="5">
         <v>0</v>
@@ -3395,7 +3394,7 @@
         <v>17</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -3403,7 +3402,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
@@ -3413,7 +3412,7 @@
         <v>18</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -3421,7 +3420,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
@@ -3431,7 +3430,7 @@
         <v>19</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -3439,7 +3438,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
@@ -3449,7 +3448,7 @@
         <v>20</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -3457,7 +3456,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C22" s="5">
         <v>0</v>
@@ -3467,7 +3466,7 @@
         <v>21</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -3475,7 +3474,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C23" s="5">
         <v>0</v>
@@ -3485,7 +3484,7 @@
         <v>22</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -3493,7 +3492,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C24" s="5">
         <v>1</v>
@@ -3503,7 +3502,7 @@
         <v>23</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -3511,7 +3510,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C25" s="5">
         <v>0</v>
@@ -3521,7 +3520,7 @@
         <v>24</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -3529,7 +3528,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C26" s="5">
         <v>1</v>
@@ -3539,7 +3538,7 @@
         <v>25</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -3547,7 +3546,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C27" s="5">
         <v>1</v>
@@ -3557,7 +3556,7 @@
         <v>26</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -3565,7 +3564,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C28" s="5">
         <v>1</v>
@@ -3575,7 +3574,7 @@
         <v>27</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -3583,7 +3582,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C29" s="5">
         <v>0</v>
@@ -3593,7 +3592,7 @@
         <v>28</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -3601,7 +3600,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C30" s="5">
         <v>1</v>
@@ -3611,7 +3610,7 @@
         <v>29</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -3619,7 +3618,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C31" s="5">
         <v>1</v>
@@ -3629,7 +3628,7 @@
         <v>30</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -3637,7 +3636,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C32" s="5">
         <v>0</v>
@@ -3647,7 +3646,7 @@
         <v>31</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -3655,7 +3654,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C33" s="5">
         <v>0</v>
@@ -3665,7 +3664,7 @@
         <v>32</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -3673,7 +3672,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C34" s="5">
         <v>1</v>
@@ -3683,7 +3682,7 @@
         <v>33</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -3691,7 +3690,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C35" s="5">
         <v>1</v>
@@ -3701,7 +3700,7 @@
         <v>34</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -3709,7 +3708,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C36" s="5">
         <v>1</v>
@@ -3719,7 +3718,7 @@
         <v>35</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -3727,7 +3726,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C37" s="5">
         <v>1</v>
@@ -3737,7 +3736,7 @@
         <v>36</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -3745,7 +3744,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C38" s="5">
         <v>1</v>
@@ -3755,7 +3754,7 @@
         <v>37</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -3763,7 +3762,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C39" s="5">
         <v>1</v>
@@ -3773,7 +3772,7 @@
         <v>38</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -3781,7 +3780,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C40" s="5">
         <v>1</v>
@@ -3791,7 +3790,7 @@
         <v>39</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -3799,7 +3798,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C41" s="5">
         <v>1</v>
@@ -3809,7 +3808,7 @@
         <v>40</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -3817,7 +3816,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -3826,7 +3825,7 @@
         <v>41</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -3834,7 +3833,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -3843,7 +3842,7 @@
         <v>42</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -3851,7 +3850,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -3860,7 +3859,7 @@
         <v>43</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -3868,7 +3867,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -3877,7 +3876,7 @@
         <v>44</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -3885,7 +3884,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -3894,7 +3893,7 @@
         <v>45</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -3902,7 +3901,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -3911,7 +3910,7 @@
         <v>46</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -3919,7 +3918,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -3928,7 +3927,7 @@
         <v>47</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -3936,7 +3935,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -3945,7 +3944,7 @@
         <v>48</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -3953,7 +3952,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -3962,7 +3961,7 @@
         <v>49</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -3970,7 +3969,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -3979,7 +3978,7 @@
         <v>50</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -3987,7 +3986,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -3996,7 +3995,7 @@
         <v>51</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -4004,7 +4003,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -4013,7 +4012,7 @@
         <v>52</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -4021,7 +4020,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C54" s="5">
         <v>1</v>
@@ -4031,7 +4030,7 @@
         <v>53</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -4039,7 +4038,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -4048,7 +4047,7 @@
         <v>54</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -4056,7 +4055,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -4065,7 +4064,7 @@
         <v>55</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -4073,7 +4072,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -4082,7 +4081,7 @@
         <v>56</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -4090,7 +4089,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -4099,7 +4098,7 @@
         <v>57</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -4107,7 +4106,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -4116,7 +4115,7 @@
         <v>58</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -4124,7 +4123,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -4133,7 +4132,7 @@
         <v>59</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -4141,7 +4140,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -4150,7 +4149,7 @@
         <v>60</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -4158,7 +4157,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -4167,7 +4166,7 @@
         <v>61</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -4175,7 +4174,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -4184,7 +4183,7 @@
         <v>62</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -4192,7 +4191,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -4201,7 +4200,7 @@
         <v>63</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -4209,7 +4208,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -4218,7 +4217,7 @@
         <v>64</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -4226,7 +4225,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -4235,7 +4234,7 @@
         <v>65</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -4243,7 +4242,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -4252,7 +4251,7 @@
         <v>66</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -4260,7 +4259,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -4269,7 +4268,7 @@
         <v>67</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -4277,7 +4276,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -4286,7 +4285,7 @@
         <v>68</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -4294,7 +4293,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -4303,7 +4302,7 @@
         <v>69</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -4311,7 +4310,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -4320,7 +4319,7 @@
         <v>70</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -4328,7 +4327,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -4337,7 +4336,7 @@
         <v>71</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -4345,7 +4344,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -4354,7 +4353,7 @@
         <v>72</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -4362,7 +4361,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -4371,7 +4370,7 @@
         <v>73</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -4379,7 +4378,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -4388,7 +4387,7 @@
         <v>74</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -4396,7 +4395,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -4405,7 +4404,7 @@
         <v>75</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -4413,7 +4412,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -4422,7 +4421,7 @@
         <v>76</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -4430,7 +4429,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -4439,7 +4438,7 @@
         <v>77</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -4447,7 +4446,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -4456,7 +4455,7 @@
         <v>78</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -4464,7 +4463,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -4473,7 +4472,7 @@
         <v>79</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -4481,7 +4480,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -4490,7 +4489,7 @@
         <v>80</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -4498,7 +4497,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -4507,7 +4506,7 @@
         <v>81</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -4515,7 +4514,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -4524,7 +4523,7 @@
         <v>82</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -4532,7 +4531,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -4541,7 +4540,7 @@
         <v>83</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -4549,7 +4548,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="32" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -4558,7 +4557,7 @@
         <v>84</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -4566,7 +4565,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -4575,7 +4574,7 @@
         <v>85</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -4583,7 +4582,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -4592,7 +4591,7 @@
         <v>86</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -4600,19 +4599,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" s="5" t="s">
         <v>247</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>248</v>
       </c>
       <c r="E88">
         <v>87</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -4620,7 +4619,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -4629,7 +4628,7 @@
         <v>88</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -4637,7 +4636,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -4646,7 +4645,7 @@
         <v>89</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -4654,7 +4653,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -4663,7 +4662,7 @@
         <v>90</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -4671,7 +4670,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -4680,7 +4679,7 @@
         <v>91</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -4688,7 +4687,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -4697,7 +4696,7 @@
         <v>92</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -4705,7 +4704,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -4714,7 +4713,7 @@
         <v>93</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -4722,7 +4721,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -4731,7 +4730,7 @@
         <v>94</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -4739,7 +4738,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -4748,7 +4747,7 @@
         <v>95</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -4756,7 +4755,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -4765,7 +4764,7 @@
         <v>96</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -4773,7 +4772,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -4783,7 +4782,7 @@
         <v>97</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -4791,7 +4790,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -4800,7 +4799,7 @@
         <v>98</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -4808,7 +4807,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -4817,7 +4816,7 @@
         <v>99</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -4825,7 +4824,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -4834,7 +4833,7 @@
         <v>100</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -4842,19 +4841,19 @@
         <v>101</v>
       </c>
       <c r="B102" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102" s="6" t="s">
         <v>275</v>
-      </c>
-      <c r="C102">
-        <v>1</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>276</v>
       </c>
       <c r="E102">
         <v>101</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4862,7 +4861,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C103" s="1">
         <v>1</v>
@@ -4871,7 +4870,7 @@
         <v>102</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -4879,7 +4878,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -4888,7 +4887,7 @@
         <v>103</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4896,7 +4895,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C105" s="2">
         <v>1</v>
@@ -4905,7 +4904,7 @@
         <v>104</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -4913,19 +4912,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106" s="5" t="s">
         <v>284</v>
-      </c>
-      <c r="C106">
-        <v>1</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>285</v>
       </c>
       <c r="E106">
         <v>105</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -4933,7 +4932,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -4942,7 +4941,7 @@
         <v>106</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -4950,7 +4949,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -4959,7 +4958,7 @@
         <v>107</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -4967,7 +4966,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -4976,7 +4975,7 @@
         <v>108</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -4984,7 +4983,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -4993,7 +4992,7 @@
         <v>109</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -5001,7 +5000,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -5010,7 +5009,7 @@
         <v>110</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -5018,7 +5017,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -5027,7 +5026,7 @@
         <v>111</v>
       </c>
       <c r="F112" s="14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -5035,7 +5034,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -5044,7 +5043,7 @@
         <v>112</v>
       </c>
       <c r="F113" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -5052,7 +5051,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -5061,7 +5060,7 @@
         <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -5069,7 +5068,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -5078,7 +5077,7 @@
         <v>114</v>
       </c>
       <c r="F115" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -5086,19 +5085,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -5106,19 +5105,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" s="5" t="s">
         <v>307</v>
-      </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>308</v>
       </c>
       <c r="E117">
         <v>116</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5126,7 +5125,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -5135,7 +5134,7 @@
         <v>117</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -5143,7 +5142,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -5152,7 +5151,7 @@
         <v>118</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -5160,7 +5159,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -5169,7 +5168,7 @@
         <v>119</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -5177,7 +5176,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -5186,7 +5185,7 @@
         <v>120</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -5194,7 +5193,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -5203,7 +5202,7 @@
         <v>121</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -5211,7 +5210,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -5220,7 +5219,7 @@
         <v>122</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -5228,7 +5227,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -5237,7 +5236,7 @@
         <v>123</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -5245,7 +5244,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -5254,7 +5253,7 @@
         <v>124</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -5262,7 +5261,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -5271,7 +5270,7 @@
         <v>125</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -5279,7 +5278,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -5288,7 +5287,7 @@
         <v>126</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -5296,7 +5295,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -5305,7 +5304,7 @@
         <v>127</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -5313,19 +5312,19 @@
         <v>128</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
       <c r="D129" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E129">
         <v>128</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
@@ -5333,19 +5332,19 @@
         <v>129</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
       <c r="D130" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E130">
         <v>129</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
@@ -5353,19 +5352,19 @@
         <v>130</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C131" s="5">
         <v>1</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E131" s="5">
         <v>130</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
@@ -5373,19 +5372,19 @@
         <v>131</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C132" s="5">
         <v>1</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E132" s="5">
         <v>131</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
@@ -5393,7 +5392,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C133" s="5">
         <v>1</v>
@@ -5402,7 +5401,7 @@
         <v>132</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -5410,7 +5409,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C134" s="5">
         <v>1</v>
@@ -5419,7 +5418,7 @@
         <v>133</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5427,19 +5426,19 @@
         <v>134</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
       <c r="D135" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E135">
         <v>134</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
@@ -5447,19 +5446,19 @@
         <v>135</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C136">
         <v>1</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E136">
         <v>135</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
@@ -5467,19 +5466,19 @@
         <v>136</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E137">
         <v>136</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5487,19 +5486,19 @@
         <v>137</v>
       </c>
       <c r="B138" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138" t="s">
         <v>344</v>
-      </c>
-      <c r="C138">
-        <v>1</v>
-      </c>
-      <c r="D138" t="s">
-        <v>345</v>
       </c>
       <c r="E138">
         <v>137</v>
       </c>
       <c r="F138" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5507,19 +5506,19 @@
         <v>138</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
       <c r="D139" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E139">
         <v>138</v>
       </c>
       <c r="F139" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
@@ -5527,7 +5526,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -5537,7 +5536,7 @@
         <v>139</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -5941,7 +5940,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D2" s="5">
         <f>'all_enter|所有按钮入口'!E2</f>
@@ -5960,7 +5959,7 @@
         <v>39</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D3" s="5">
         <f>'all_enter|所有按钮入口'!E3</f>
@@ -5983,7 +5982,7 @@
         <v>40</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D4" s="5">
         <f>'all_enter|所有按钮入口'!E4</f>

--- a/config_hlw/game_enter_btn_config.xlsx
+++ b/config_hlw/game_enter_btn_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="820" firstSheet="17" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="820"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="356">
   <si>
     <t>id|行号</t>
   </si>
@@ -96,31 +96,13 @@
     <t>center</t>
   </si>
   <si>
-    <t>14#</t>
-  </si>
-  <si>
     <t>center1</t>
   </si>
   <si>
-    <t>91#</t>
-  </si>
-  <si>
     <t>top_left</t>
   </si>
   <si>
-    <t>118#72#</t>
-  </si>
-  <si>
-    <t>center_top</t>
-  </si>
-  <si>
-    <t>9#80#122#</t>
-  </si>
-  <si>
     <t>top_right</t>
-  </si>
-  <si>
-    <t>108#11#</t>
   </si>
   <si>
     <t>left_down</t>
@@ -1363,6 +1345,10 @@
   </si>
   <si>
     <t>111#112#72#11#</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>118#72#80#11#</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1927,10 +1913,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1958,55 +1944,11 @@
       <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>3</v>
+      <c r="B2" s="18" t="s">
+        <v>5</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="17">
-        <v>2</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="17">
-        <v>3</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="17">
-        <v>4</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="17">
-        <v>5</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>12</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -2046,10 +1988,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2094,10 +2036,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2140,10 +2082,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2151,10 +2093,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2193,10 +2135,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2234,10 +2176,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2245,10 +2187,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2291,10 +2233,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2338,10 +2280,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2380,10 +2322,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2396,7 +2338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -2418,7 +2360,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2426,10 +2368,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2437,10 +2379,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2448,10 +2390,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F4" s="5"/>
     </row>
@@ -2460,10 +2402,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -2471,7 +2413,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C6" s="5"/>
     </row>
@@ -2480,10 +2422,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2491,10 +2433,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2502,10 +2444,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2540,7 +2482,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2548,10 +2490,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2606,10 +2548,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2617,10 +2559,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2628,10 +2570,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2648,10 +2590,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="10:10" x14ac:dyDescent="0.2">
@@ -2685,7 +2627,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2693,10 +2635,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -2731,10 +2673,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2769,10 +2711,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2807,10 +2749,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2846,10 +2788,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2887,10 +2829,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2898,10 +2840,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2909,10 +2851,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2947,10 +2889,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2988,10 +2930,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3032,10 +2974,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3071,22 +3013,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -3094,7 +3036,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C2" s="5">
         <v>0</v>
@@ -3104,7 +3046,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -3112,7 +3054,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C3" s="5">
         <v>0</v>
@@ -3122,7 +3064,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -3130,19 +3072,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E4" s="5">
         <v>3</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -3150,7 +3092,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
@@ -3160,7 +3102,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -3168,7 +3110,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
@@ -3178,7 +3120,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -3186,7 +3128,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -3196,7 +3138,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -3204,7 +3146,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
@@ -3214,7 +3156,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -3222,7 +3164,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C9" s="5">
         <v>0</v>
@@ -3232,7 +3174,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -3240,7 +3182,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -3250,7 +3192,7 @@
         <v>9</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -3258,7 +3200,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -3268,7 +3210,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -3276,7 +3218,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
@@ -3286,7 +3228,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -3294,7 +3236,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
@@ -3304,7 +3246,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -3312,7 +3254,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C14" s="5">
         <v>0</v>
@@ -3322,7 +3264,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -3330,7 +3272,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C15" s="5">
         <v>0</v>
@@ -3340,7 +3282,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -3348,7 +3290,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C16" s="5">
         <v>0</v>
@@ -3358,7 +3300,7 @@
         <v>15</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -3366,7 +3308,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
@@ -3376,7 +3318,7 @@
         <v>16</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -3384,7 +3326,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C18" s="5">
         <v>0</v>
@@ -3394,7 +3336,7 @@
         <v>17</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -3402,7 +3344,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
@@ -3412,7 +3354,7 @@
         <v>18</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -3420,7 +3362,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
@@ -3430,7 +3372,7 @@
         <v>19</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -3438,7 +3380,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
@@ -3448,7 +3390,7 @@
         <v>20</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -3456,7 +3398,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C22" s="5">
         <v>0</v>
@@ -3466,7 +3408,7 @@
         <v>21</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -3474,7 +3416,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C23" s="5">
         <v>0</v>
@@ -3484,7 +3426,7 @@
         <v>22</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -3492,7 +3434,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C24" s="5">
         <v>1</v>
@@ -3502,7 +3444,7 @@
         <v>23</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -3510,7 +3452,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C25" s="5">
         <v>0</v>
@@ -3520,7 +3462,7 @@
         <v>24</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -3528,7 +3470,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C26" s="5">
         <v>1</v>
@@ -3538,7 +3480,7 @@
         <v>25</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -3546,7 +3488,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C27" s="5">
         <v>1</v>
@@ -3556,7 +3498,7 @@
         <v>26</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -3564,7 +3506,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C28" s="5">
         <v>1</v>
@@ -3574,7 +3516,7 @@
         <v>27</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -3582,7 +3524,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C29" s="5">
         <v>0</v>
@@ -3592,7 +3534,7 @@
         <v>28</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -3600,7 +3542,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C30" s="5">
         <v>1</v>
@@ -3610,7 +3552,7 @@
         <v>29</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -3618,7 +3560,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C31" s="5">
         <v>1</v>
@@ -3628,7 +3570,7 @@
         <v>30</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -3636,7 +3578,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C32" s="5">
         <v>0</v>
@@ -3646,7 +3588,7 @@
         <v>31</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -3654,7 +3596,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C33" s="5">
         <v>0</v>
@@ -3664,7 +3606,7 @@
         <v>32</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -3672,7 +3614,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C34" s="5">
         <v>1</v>
@@ -3682,7 +3624,7 @@
         <v>33</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -3690,7 +3632,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C35" s="5">
         <v>1</v>
@@ -3700,7 +3642,7 @@
         <v>34</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -3708,7 +3650,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C36" s="5">
         <v>1</v>
@@ -3718,7 +3660,7 @@
         <v>35</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -3726,7 +3668,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C37" s="5">
         <v>1</v>
@@ -3736,7 +3678,7 @@
         <v>36</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -3744,7 +3686,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C38" s="5">
         <v>1</v>
@@ -3754,7 +3696,7 @@
         <v>37</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -3762,7 +3704,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C39" s="5">
         <v>1</v>
@@ -3772,7 +3714,7 @@
         <v>38</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -3780,7 +3722,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C40" s="5">
         <v>1</v>
@@ -3790,7 +3732,7 @@
         <v>39</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -3798,7 +3740,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C41" s="5">
         <v>1</v>
@@ -3808,7 +3750,7 @@
         <v>40</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -3816,7 +3758,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -3825,7 +3767,7 @@
         <v>41</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -3833,7 +3775,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -3842,7 +3784,7 @@
         <v>42</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -3850,7 +3792,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -3859,7 +3801,7 @@
         <v>43</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -3867,7 +3809,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -3876,7 +3818,7 @@
         <v>44</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -3884,7 +3826,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -3893,7 +3835,7 @@
         <v>45</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -3901,7 +3843,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -3910,7 +3852,7 @@
         <v>46</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -3918,7 +3860,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -3927,7 +3869,7 @@
         <v>47</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -3935,7 +3877,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -3944,7 +3886,7 @@
         <v>48</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -3952,7 +3894,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -3961,7 +3903,7 @@
         <v>49</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -3969,7 +3911,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -3978,7 +3920,7 @@
         <v>50</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -3986,7 +3928,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -3995,7 +3937,7 @@
         <v>51</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -4003,7 +3945,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -4012,7 +3954,7 @@
         <v>52</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -4020,7 +3962,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C54" s="5">
         <v>1</v>
@@ -4030,7 +3972,7 @@
         <v>53</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -4038,7 +3980,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -4047,7 +3989,7 @@
         <v>54</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -4055,7 +3997,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -4064,7 +4006,7 @@
         <v>55</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -4072,7 +4014,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -4081,7 +4023,7 @@
         <v>56</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -4089,7 +4031,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -4098,7 +4040,7 @@
         <v>57</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -4106,7 +4048,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -4115,7 +4057,7 @@
         <v>58</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -4123,7 +4065,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -4132,7 +4074,7 @@
         <v>59</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -4140,7 +4082,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -4149,7 +4091,7 @@
         <v>60</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -4157,7 +4099,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -4166,7 +4108,7 @@
         <v>61</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -4174,7 +4116,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -4183,7 +4125,7 @@
         <v>62</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -4191,7 +4133,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -4200,7 +4142,7 @@
         <v>63</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -4208,7 +4150,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -4217,7 +4159,7 @@
         <v>64</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -4225,7 +4167,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -4234,7 +4176,7 @@
         <v>65</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -4242,7 +4184,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -4251,7 +4193,7 @@
         <v>66</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -4259,7 +4201,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -4268,7 +4210,7 @@
         <v>67</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -4276,7 +4218,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -4285,7 +4227,7 @@
         <v>68</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -4293,7 +4235,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -4302,7 +4244,7 @@
         <v>69</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -4310,7 +4252,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -4319,7 +4261,7 @@
         <v>70</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -4327,7 +4269,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -4336,7 +4278,7 @@
         <v>71</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -4344,7 +4286,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -4353,7 +4295,7 @@
         <v>72</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -4361,7 +4303,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -4370,7 +4312,7 @@
         <v>73</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -4378,7 +4320,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -4387,7 +4329,7 @@
         <v>74</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -4395,7 +4337,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -4404,7 +4346,7 @@
         <v>75</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -4412,7 +4354,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -4421,7 +4363,7 @@
         <v>76</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -4429,7 +4371,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -4438,7 +4380,7 @@
         <v>77</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -4446,7 +4388,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -4455,7 +4397,7 @@
         <v>78</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -4463,7 +4405,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -4472,7 +4414,7 @@
         <v>79</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -4480,7 +4422,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -4489,7 +4431,7 @@
         <v>80</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -4497,7 +4439,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -4506,7 +4448,7 @@
         <v>81</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -4514,7 +4456,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -4523,7 +4465,7 @@
         <v>82</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -4531,7 +4473,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -4540,7 +4482,7 @@
         <v>83</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -4548,7 +4490,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="32" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -4557,7 +4499,7 @@
         <v>84</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -4565,7 +4507,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -4574,7 +4516,7 @@
         <v>85</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -4582,7 +4524,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -4591,7 +4533,7 @@
         <v>86</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -4599,19 +4541,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="E88">
         <v>87</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -4619,7 +4561,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -4628,7 +4570,7 @@
         <v>88</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -4636,7 +4578,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -4645,7 +4587,7 @@
         <v>89</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -4653,7 +4595,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -4662,7 +4604,7 @@
         <v>90</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -4670,7 +4612,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -4679,7 +4621,7 @@
         <v>91</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -4687,7 +4629,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -4696,7 +4638,7 @@
         <v>92</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -4704,7 +4646,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -4713,7 +4655,7 @@
         <v>93</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -4721,7 +4663,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -4730,7 +4672,7 @@
         <v>94</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -4738,7 +4680,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -4747,7 +4689,7 @@
         <v>95</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -4755,7 +4697,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -4764,7 +4706,7 @@
         <v>96</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -4772,7 +4714,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -4782,7 +4724,7 @@
         <v>97</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -4790,7 +4732,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -4799,7 +4741,7 @@
         <v>98</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -4807,7 +4749,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -4816,7 +4758,7 @@
         <v>99</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -4824,7 +4766,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -4833,7 +4775,7 @@
         <v>100</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -4841,19 +4783,19 @@
         <v>101</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E102">
         <v>101</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4861,7 +4803,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C103" s="1">
         <v>1</v>
@@ -4870,7 +4812,7 @@
         <v>102</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -4878,7 +4820,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -4887,7 +4829,7 @@
         <v>103</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4895,7 +4837,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C105" s="2">
         <v>1</v>
@@ -4904,7 +4846,7 @@
         <v>104</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -4912,19 +4854,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E106">
         <v>105</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -4932,7 +4874,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -4941,7 +4883,7 @@
         <v>106</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -4949,7 +4891,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -4958,7 +4900,7 @@
         <v>107</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -4966,7 +4908,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -4975,7 +4917,7 @@
         <v>108</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -4983,7 +4925,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -4992,7 +4934,7 @@
         <v>109</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -5000,7 +4942,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -5009,7 +4951,7 @@
         <v>110</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -5017,7 +4959,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -5026,7 +4968,7 @@
         <v>111</v>
       </c>
       <c r="F112" s="14" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -5034,7 +4976,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -5043,7 +4985,7 @@
         <v>112</v>
       </c>
       <c r="F113" s="14" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -5051,7 +4993,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -5060,7 +5002,7 @@
         <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -5068,7 +5010,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -5077,7 +5019,7 @@
         <v>114</v>
       </c>
       <c r="F115" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -5085,19 +5027,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -5105,19 +5047,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="E117">
         <v>116</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5125,7 +5067,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -5134,7 +5076,7 @@
         <v>117</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -5142,7 +5084,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -5151,7 +5093,7 @@
         <v>118</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -5159,7 +5101,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -5168,7 +5110,7 @@
         <v>119</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -5176,7 +5118,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -5185,7 +5127,7 @@
         <v>120</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -5193,7 +5135,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -5202,7 +5144,7 @@
         <v>121</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -5210,7 +5152,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -5219,7 +5161,7 @@
         <v>122</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -5227,7 +5169,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -5236,7 +5178,7 @@
         <v>123</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -5244,7 +5186,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -5253,7 +5195,7 @@
         <v>124</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -5261,7 +5203,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -5270,7 +5212,7 @@
         <v>125</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -5278,7 +5220,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -5287,7 +5229,7 @@
         <v>126</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -5295,7 +5237,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -5304,7 +5246,7 @@
         <v>127</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -5312,19 +5254,19 @@
         <v>128</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
       <c r="D129" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E129">
         <v>128</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
@@ -5332,19 +5274,19 @@
         <v>129</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
       <c r="D130" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E130">
         <v>129</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
@@ -5352,19 +5294,19 @@
         <v>130</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C131" s="5">
         <v>1</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E131" s="5">
         <v>130</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
@@ -5372,19 +5314,19 @@
         <v>131</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C132" s="5">
         <v>1</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="E132" s="5">
         <v>131</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
@@ -5392,7 +5334,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C133" s="5">
         <v>1</v>
@@ -5401,7 +5343,7 @@
         <v>132</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -5409,7 +5351,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C134" s="5">
         <v>1</v>
@@ -5418,7 +5360,7 @@
         <v>133</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5426,19 +5368,19 @@
         <v>134</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
       <c r="D135" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E135">
         <v>134</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
@@ -5446,19 +5388,19 @@
         <v>135</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C136">
         <v>1</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E136">
         <v>135</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
@@ -5466,19 +5408,19 @@
         <v>136</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="E137">
         <v>136</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5486,19 +5428,19 @@
         <v>137</v>
       </c>
       <c r="B138" s="16" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
       <c r="D138" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="E138">
         <v>137</v>
       </c>
       <c r="F138" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5506,19 +5448,19 @@
         <v>138</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
       <c r="D139" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E139">
         <v>138</v>
       </c>
       <c r="F139" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
@@ -5526,7 +5468,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -5536,7 +5478,7 @@
         <v>139</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -5576,10 +5518,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5587,10 +5529,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5598,7 +5540,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C4" s="19"/>
     </row>
@@ -5616,10 +5558,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -5662,10 +5604,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5673,10 +5615,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5684,10 +5626,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5695,7 +5637,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="25"/>
     </row>
@@ -5704,10 +5646,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -5748,10 +5690,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -5794,10 +5736,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5805,10 +5747,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D3"/>
     </row>
@@ -5853,10 +5795,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5864,7 +5806,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C3" s="19"/>
     </row>
@@ -5873,10 +5815,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -5884,10 +5826,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -5926,10 +5868,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -5937,10 +5879,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D2" s="5">
         <f>'all_enter|所有按钮入口'!E2</f>
@@ -5956,10 +5898,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D3" s="5">
         <f>'all_enter|所有按钮入口'!E3</f>
@@ -5979,10 +5921,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="D4" s="5">
         <f>'all_enter|所有按钮入口'!E4</f>
@@ -5998,10 +5940,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D5" s="5">
         <f>'all_enter|所有按钮入口'!E5</f>
@@ -6018,10 +5960,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D6" s="5">
         <f>'all_enter|所有按钮入口'!E6</f>
@@ -6037,10 +5979,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D7" s="5">
         <f>'all_enter|所有按钮入口'!E7</f>
@@ -6056,10 +5998,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D8" s="5">
         <f>'all_enter|所有按钮入口'!E8</f>
@@ -6075,10 +6017,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D9" s="5">
         <f>'all_enter|所有按钮入口'!E9</f>
@@ -7444,10 +7386,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/config_hlw/game_enter_btn_config.xlsx
+++ b/config_hlw/game_enter_btn_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_hlw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_hlw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="820" firstSheet="21" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -1307,6 +1307,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1915,8 +1916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2993,11 +2994,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B86" sqref="B86"/>
+      <selection pane="bottomRight" activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4911,7 +4912,7 @@
         <v>284</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E109">
         <v>108</v>

--- a/config_hlw/game_enter_btn_config.xlsx
+++ b/config_hlw/game_enter_btn_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="820" firstSheet="21" activeTab="28"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="820" firstSheet="17" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -1345,11 +1345,23 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>111#112#72#11#</t>
+    <t>118#72#80#11#</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>118#72#80#11#</t>
+    <r>
+      <t>111#112#43#72#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11#</t>
+    </r>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1949,7 +1961,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -2339,8 +2351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2371,8 +2383,8 @@
       <c r="B2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>354</v>
+      <c r="C2" s="30" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2994,11 +3006,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B92" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C110" sqref="C110"/>
+      <selection pane="bottomRight" activeCell="A73" sqref="A73:F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_hlw/game_enter_btn_config.xlsx
+++ b/config_hlw/game_enter_btn_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="820" firstSheet="17" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="820" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="356">
   <si>
     <t>id|行号</t>
   </si>
@@ -114,9 +114,6 @@
     <t>left_top</t>
   </si>
   <si>
-    <t>16;31;101#</t>
-  </si>
-  <si>
     <t>left_enter</t>
   </si>
   <si>
@@ -129,15 +126,9 @@
     <t>134#</t>
   </si>
   <si>
-    <t>101#</t>
-  </si>
-  <si>
     <t>128#11;93#</t>
   </si>
   <si>
-    <t>16;31;90;101#</t>
-  </si>
-  <si>
     <t>26;15#</t>
   </si>
   <si>
@@ -145,9 +136,6 @@
   </si>
   <si>
     <t>129#</t>
-  </si>
-  <si>
-    <t>101#11;93#</t>
   </si>
   <si>
     <t>down</t>
@@ -295,9 +283,6 @@
   </si>
   <si>
     <t>26#</t>
-  </si>
-  <si>
-    <t>16;101;31;#11;93#</t>
   </si>
   <si>
     <t>20#</t>
@@ -374,9 +359,6 @@
     <t>127#</t>
   </si>
   <si>
-    <t>101;11;93#</t>
-  </si>
-  <si>
     <t>100#</t>
   </si>
   <si>
@@ -1362,6 +1344,30 @@
       </rPr>
       <t>11#</t>
     </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>16;31#</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>16;31;90#</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>11;93#</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>16;31;#11;93#</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>11;93#</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>11;93#</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1961,7 +1967,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -2004,7 +2010,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2052,7 +2058,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2095,10 +2101,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2109,7 +2115,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2151,7 +2157,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2189,10 +2195,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2203,7 +2209,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2246,10 +2252,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2264,7 +2270,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2293,10 +2299,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>50</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -2338,7 +2344,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2351,7 +2357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2373,7 +2379,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2381,10 +2387,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2392,10 +2398,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2403,10 +2409,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F4" s="5"/>
     </row>
@@ -2415,10 +2421,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -2426,7 +2432,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C6" s="5"/>
     </row>
@@ -2435,10 +2441,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2446,10 +2452,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2457,10 +2463,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2495,7 +2501,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2503,10 +2509,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2532,7 +2538,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2575,7 +2581,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>10</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2583,10 +2589,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2603,10 +2609,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="25" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="18" spans="10:10" x14ac:dyDescent="0.2">
@@ -2640,7 +2646,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2648,10 +2654,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -2665,7 +2671,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U40" sqref="U40"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2686,10 +2692,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>65</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -2703,7 +2709,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2724,10 +2730,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>21</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -2741,7 +2747,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2765,7 +2771,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>21</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -2818,7 +2824,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2842,11 +2848,9 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>15</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
@@ -2864,10 +2868,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2902,10 +2906,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2943,10 +2947,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2987,10 +2991,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3006,11 +3010,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A73" sqref="A73:F73"/>
+      <selection pane="bottomRight" activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3026,22 +3030,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -3049,7 +3053,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C2" s="5">
         <v>0</v>
@@ -3059,7 +3063,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -3067,7 +3071,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C3" s="5">
         <v>0</v>
@@ -3077,7 +3081,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -3085,19 +3089,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E4" s="5">
         <v>3</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -3105,7 +3109,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
@@ -3115,7 +3119,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -3123,7 +3127,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
@@ -3133,7 +3137,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -3141,7 +3145,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -3151,7 +3155,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -3159,7 +3163,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
@@ -3169,7 +3173,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -3177,7 +3181,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C9" s="5">
         <v>0</v>
@@ -3187,7 +3191,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -3195,7 +3199,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -3205,7 +3209,7 @@
         <v>9</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -3213,7 +3217,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -3223,7 +3227,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -3231,7 +3235,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
@@ -3241,7 +3245,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -3249,7 +3253,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
@@ -3259,7 +3263,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -3267,7 +3271,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C14" s="5">
         <v>0</v>
@@ -3277,7 +3281,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -3285,7 +3289,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C15" s="5">
         <v>0</v>
@@ -3295,7 +3299,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -3303,7 +3307,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C16" s="5">
         <v>0</v>
@@ -3313,7 +3317,7 @@
         <v>15</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -3321,7 +3325,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
@@ -3331,7 +3335,7 @@
         <v>16</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -3339,7 +3343,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C18" s="5">
         <v>0</v>
@@ -3349,7 +3353,7 @@
         <v>17</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -3357,7 +3361,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
@@ -3367,7 +3371,7 @@
         <v>18</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -3375,7 +3379,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
@@ -3385,7 +3389,7 @@
         <v>19</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -3393,7 +3397,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
@@ -3403,7 +3407,7 @@
         <v>20</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -3411,7 +3415,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C22" s="5">
         <v>0</v>
@@ -3421,7 +3425,7 @@
         <v>21</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -3429,7 +3433,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C23" s="5">
         <v>0</v>
@@ -3439,7 +3443,7 @@
         <v>22</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -3447,7 +3451,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C24" s="5">
         <v>1</v>
@@ -3457,7 +3461,7 @@
         <v>23</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -3465,7 +3469,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C25" s="5">
         <v>0</v>
@@ -3475,7 +3479,7 @@
         <v>24</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -3483,7 +3487,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C26" s="5">
         <v>1</v>
@@ -3493,7 +3497,7 @@
         <v>25</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -3501,7 +3505,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C27" s="5">
         <v>1</v>
@@ -3511,7 +3515,7 @@
         <v>26</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -3519,7 +3523,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C28" s="5">
         <v>1</v>
@@ -3529,7 +3533,7 @@
         <v>27</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -3537,7 +3541,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C29" s="5">
         <v>0</v>
@@ -3547,7 +3551,7 @@
         <v>28</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -3555,7 +3559,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C30" s="5">
         <v>1</v>
@@ -3565,7 +3569,7 @@
         <v>29</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -3573,7 +3577,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C31" s="5">
         <v>1</v>
@@ -3583,7 +3587,7 @@
         <v>30</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -3591,7 +3595,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C32" s="5">
         <v>0</v>
@@ -3601,7 +3605,7 @@
         <v>31</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -3609,7 +3613,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C33" s="5">
         <v>0</v>
@@ -3619,7 +3623,7 @@
         <v>32</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -3627,7 +3631,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C34" s="5">
         <v>1</v>
@@ -3637,7 +3641,7 @@
         <v>33</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -3645,7 +3649,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C35" s="5">
         <v>1</v>
@@ -3655,7 +3659,7 @@
         <v>34</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -3663,7 +3667,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C36" s="5">
         <v>1</v>
@@ -3673,7 +3677,7 @@
         <v>35</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -3681,7 +3685,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C37" s="5">
         <v>1</v>
@@ -3691,7 +3695,7 @@
         <v>36</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -3699,7 +3703,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C38" s="5">
         <v>1</v>
@@ -3709,7 +3713,7 @@
         <v>37</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -3717,7 +3721,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C39" s="5">
         <v>1</v>
@@ -3727,7 +3731,7 @@
         <v>38</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -3735,7 +3739,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C40" s="5">
         <v>1</v>
@@ -3745,7 +3749,7 @@
         <v>39</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -3753,7 +3757,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C41" s="5">
         <v>1</v>
@@ -3763,7 +3767,7 @@
         <v>40</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -3771,7 +3775,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -3780,7 +3784,7 @@
         <v>41</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -3788,7 +3792,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -3797,7 +3801,7 @@
         <v>42</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -3805,7 +3809,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -3814,7 +3818,7 @@
         <v>43</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -3822,7 +3826,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -3831,7 +3835,7 @@
         <v>44</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -3839,7 +3843,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -3848,7 +3852,7 @@
         <v>45</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -3856,7 +3860,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -3865,7 +3869,7 @@
         <v>46</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -3873,7 +3877,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -3882,7 +3886,7 @@
         <v>47</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -3890,7 +3894,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -3899,7 +3903,7 @@
         <v>48</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -3907,7 +3911,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -3916,7 +3920,7 @@
         <v>49</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -3924,7 +3928,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -3933,7 +3937,7 @@
         <v>50</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -3941,7 +3945,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -3950,7 +3954,7 @@
         <v>51</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -3958,7 +3962,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -3967,7 +3971,7 @@
         <v>52</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -3975,7 +3979,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C54" s="5">
         <v>1</v>
@@ -3985,7 +3989,7 @@
         <v>53</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -3993,7 +3997,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -4002,7 +4006,7 @@
         <v>54</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -4010,7 +4014,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -4019,7 +4023,7 @@
         <v>55</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -4027,7 +4031,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -4036,7 +4040,7 @@
         <v>56</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -4044,7 +4048,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -4053,7 +4057,7 @@
         <v>57</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -4061,7 +4065,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -4070,7 +4074,7 @@
         <v>58</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -4078,7 +4082,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -4087,7 +4091,7 @@
         <v>59</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -4095,7 +4099,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -4104,7 +4108,7 @@
         <v>60</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -4112,7 +4116,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -4121,7 +4125,7 @@
         <v>61</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -4129,7 +4133,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -4138,7 +4142,7 @@
         <v>62</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -4146,7 +4150,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -4155,7 +4159,7 @@
         <v>63</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -4163,7 +4167,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -4172,7 +4176,7 @@
         <v>64</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -4180,7 +4184,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -4189,7 +4193,7 @@
         <v>65</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -4197,7 +4201,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -4206,7 +4210,7 @@
         <v>66</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -4214,7 +4218,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -4223,7 +4227,7 @@
         <v>67</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -4231,7 +4235,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -4240,7 +4244,7 @@
         <v>68</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -4248,7 +4252,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -4257,7 +4261,7 @@
         <v>69</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -4265,7 +4269,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -4274,7 +4278,7 @@
         <v>70</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -4282,7 +4286,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -4291,7 +4295,7 @@
         <v>71</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -4299,7 +4303,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -4308,7 +4312,7 @@
         <v>72</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -4316,7 +4320,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -4325,7 +4329,7 @@
         <v>73</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -4333,7 +4337,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -4342,7 +4346,7 @@
         <v>74</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -4350,7 +4354,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -4359,7 +4363,7 @@
         <v>75</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -4367,7 +4371,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -4376,7 +4380,7 @@
         <v>76</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -4384,7 +4388,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -4393,7 +4397,7 @@
         <v>77</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -4401,7 +4405,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -4410,7 +4414,7 @@
         <v>78</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -4418,7 +4422,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -4427,7 +4431,7 @@
         <v>79</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -4435,7 +4439,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -4444,7 +4448,7 @@
         <v>80</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -4452,7 +4456,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -4461,7 +4465,7 @@
         <v>81</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -4469,7 +4473,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -4478,7 +4482,7 @@
         <v>82</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -4486,7 +4490,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -4495,7 +4499,7 @@
         <v>83</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -4503,7 +4507,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="32" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -4512,7 +4516,7 @@
         <v>84</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -4520,7 +4524,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -4529,7 +4533,7 @@
         <v>85</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -4537,7 +4541,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -4546,7 +4550,7 @@
         <v>86</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -4554,19 +4558,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E88">
         <v>87</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -4574,7 +4578,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -4583,7 +4587,7 @@
         <v>88</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -4591,7 +4595,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -4600,7 +4604,7 @@
         <v>89</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -4608,7 +4612,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -4617,7 +4621,7 @@
         <v>90</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -4625,7 +4629,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -4634,7 +4638,7 @@
         <v>91</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -4642,7 +4646,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -4651,7 +4655,7 @@
         <v>92</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -4659,7 +4663,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -4668,7 +4672,7 @@
         <v>93</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -4676,7 +4680,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -4685,7 +4689,7 @@
         <v>94</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -4693,7 +4697,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -4702,7 +4706,7 @@
         <v>95</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -4710,7 +4714,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -4719,7 +4723,7 @@
         <v>96</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -4727,7 +4731,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -4737,7 +4741,7 @@
         <v>97</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -4745,7 +4749,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -4754,7 +4758,7 @@
         <v>98</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -4762,7 +4766,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -4771,7 +4775,7 @@
         <v>99</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -4779,7 +4783,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -4788,7 +4792,7 @@
         <v>100</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -4796,19 +4800,19 @@
         <v>101</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E102">
         <v>101</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4816,7 +4820,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C103" s="1">
         <v>1</v>
@@ -4825,7 +4829,7 @@
         <v>102</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -4833,7 +4837,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -4842,7 +4846,7 @@
         <v>103</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4850,7 +4854,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C105" s="2">
         <v>1</v>
@@ -4859,7 +4863,7 @@
         <v>104</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -4867,19 +4871,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E106">
         <v>105</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -4887,7 +4891,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -4896,7 +4900,7 @@
         <v>106</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -4904,7 +4908,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -4913,7 +4917,7 @@
         <v>107</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -4921,7 +4925,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -4930,7 +4934,7 @@
         <v>108</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -4938,7 +4942,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -4947,7 +4951,7 @@
         <v>109</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -4955,7 +4959,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -4964,7 +4968,7 @@
         <v>110</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -4972,7 +4976,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -4981,7 +4985,7 @@
         <v>111</v>
       </c>
       <c r="F112" s="14" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -4989,7 +4993,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -4998,7 +5002,7 @@
         <v>112</v>
       </c>
       <c r="F113" s="14" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -5006,7 +5010,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -5015,7 +5019,7 @@
         <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -5023,7 +5027,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -5032,7 +5036,7 @@
         <v>114</v>
       </c>
       <c r="F115" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -5040,19 +5044,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -5060,19 +5064,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E117">
         <v>116</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5080,7 +5084,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -5089,7 +5093,7 @@
         <v>117</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -5097,7 +5101,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -5106,7 +5110,7 @@
         <v>118</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -5114,7 +5118,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -5123,7 +5127,7 @@
         <v>119</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -5131,7 +5135,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -5140,7 +5144,7 @@
         <v>120</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -5148,7 +5152,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -5157,7 +5161,7 @@
         <v>121</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -5165,7 +5169,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -5174,7 +5178,7 @@
         <v>122</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -5182,7 +5186,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -5191,7 +5195,7 @@
         <v>123</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -5199,7 +5203,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -5208,7 +5212,7 @@
         <v>124</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -5216,7 +5220,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -5225,7 +5229,7 @@
         <v>125</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -5233,7 +5237,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -5242,7 +5246,7 @@
         <v>126</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -5250,7 +5254,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -5259,7 +5263,7 @@
         <v>127</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -5267,19 +5271,19 @@
         <v>128</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
       <c r="D129" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="E129">
         <v>128</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
@@ -5287,19 +5291,19 @@
         <v>129</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
       <c r="D130" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="E130">
         <v>129</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
@@ -5307,19 +5311,19 @@
         <v>130</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C131" s="5">
         <v>1</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E131" s="5">
         <v>130</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
@@ -5327,19 +5331,19 @@
         <v>131</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C132" s="5">
         <v>1</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E132" s="5">
         <v>131</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
@@ -5347,7 +5351,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C133" s="5">
         <v>1</v>
@@ -5356,7 +5360,7 @@
         <v>132</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -5364,7 +5368,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C134" s="5">
         <v>1</v>
@@ -5373,7 +5377,7 @@
         <v>133</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5381,19 +5385,19 @@
         <v>134</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
       <c r="D135" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="E135">
         <v>134</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
@@ -5401,19 +5405,19 @@
         <v>135</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C136">
         <v>1</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E136">
         <v>135</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
@@ -5421,19 +5425,19 @@
         <v>136</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E137">
         <v>136</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5441,19 +5445,19 @@
         <v>137</v>
       </c>
       <c r="B138" s="16" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
       <c r="D138" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E138">
         <v>137</v>
       </c>
       <c r="F138" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5461,19 +5465,19 @@
         <v>138</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
       <c r="D139" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="E139">
         <v>138</v>
       </c>
       <c r="F139" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
@@ -5481,7 +5485,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -5491,7 +5495,7 @@
         <v>139</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -5506,7 +5510,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5544,16 +5548,14 @@
       <c r="B3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>15</v>
-      </c>
+      <c r="C3" s="19"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="19"/>
     </row>
@@ -5571,10 +5573,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="25" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -5588,7 +5590,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5620,7 +5622,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5631,7 +5633,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>17</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5639,10 +5641,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5659,10 +5661,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -5677,7 +5679,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5706,7 +5708,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>21</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -5749,10 +5751,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5760,10 +5762,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D3"/>
     </row>
@@ -5808,10 +5810,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5819,7 +5821,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C3" s="19"/>
     </row>
@@ -5828,10 +5830,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -5839,10 +5841,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -5856,8 +5858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J140"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5881,10 +5883,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -5892,10 +5894,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D2" s="5">
         <f>'all_enter|所有按钮入口'!E2</f>
@@ -5911,10 +5913,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D3" s="5">
         <f>'all_enter|所有按钮入口'!E3</f>
@@ -5934,10 +5936,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="D4" s="5">
         <f>'all_enter|所有按钮入口'!E4</f>
@@ -5953,10 +5955,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D5" s="5">
         <f>'all_enter|所有按钮入口'!E5</f>
@@ -5973,10 +5975,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D6" s="5">
         <f>'all_enter|所有按钮入口'!E6</f>
@@ -5992,10 +5994,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D7" s="5">
         <f>'all_enter|所有按钮入口'!E7</f>
@@ -6011,10 +6013,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D8" s="5">
         <f>'all_enter|所有按钮入口'!E8</f>
@@ -6030,10 +6032,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D9" s="5">
         <f>'all_enter|所有按钮入口'!E9</f>
@@ -7399,10 +7401,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/config_hlw/game_enter_btn_config.xlsx
+++ b/config_hlw/game_enter_btn_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="820" activeTab="28"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="820" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -1226,10 +1226,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>113;89;105#97;11;93;94#58;107#30#</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>110#84#114#61#</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1339,6 +1335,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1368,6 +1365,10 @@
   </si>
   <si>
     <t>11;93#</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>36;89;105#97;11;93;94#58;107#30#</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1967,7 +1968,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -2302,7 +2303,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -2390,7 +2391,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2509,10 +2510,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>344</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2581,7 +2582,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2654,10 +2655,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>346</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -2695,7 +2696,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -2733,7 +2734,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -2771,7 +2772,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -3010,11 +3011,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B91" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B94" sqref="B94"/>
+      <selection pane="bottomRight" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3199,7 +3200,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -3217,7 +3218,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -4507,7 +4508,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="32" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -5633,7 +5634,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5708,7 +5709,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -5858,8 +5859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J140"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5897,7 +5898,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D2" s="5">
         <f>'all_enter|所有按钮入口'!E2</f>
@@ -5916,7 +5917,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="D3" s="5">
         <f>'all_enter|所有按钮入口'!E3</f>
@@ -5939,7 +5940,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D4" s="5">
         <f>'all_enter|所有按钮入口'!E4</f>

--- a/config_hlw/game_enter_btn_config.xlsx
+++ b/config_hlw/game_enter_btn_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="820" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="820" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -1368,7 +1368,7 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>36;89;105#97;11;93;94#58;107#30#</t>
+    <t>85;89#97;11;93;94#58;107#30#</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -3015,7 +3015,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A37" sqref="A37"/>
+      <selection pane="bottomRight" activeCell="A86" sqref="A86:XFD86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5680,7 +5680,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="K37" sqref="K37:L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_hlw/game_enter_btn_config.xlsx
+++ b/config_hlw/game_enter_btn_config.xlsx
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="358">
   <si>
     <t>id|行号</t>
   </si>
@@ -1091,9 +1091,6 @@
     <t>免费话费(冲金鸡)</t>
   </si>
   <si>
-    <t>"xycj",</t>
-  </si>
-  <si>
     <t>xycj_enter_limit</t>
   </si>
   <si>
@@ -1215,10 +1212,6 @@
   </si>
   <si>
     <t>"act_xrqtl",</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>"sys_flqcj",</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -1262,10 +1255,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>42#10#</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>"act_0</t>
     </r>
@@ -1368,7 +1357,27 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>85;89#97;11;93;94#58;107#30#</t>
+    <t>"sys_flqcj",</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>"xycj",</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>存钱罐-捕鱼</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_cqg",</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>3#42#10#</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>85#58#30#140#</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1968,7 +1977,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -2303,7 +2312,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -2391,7 +2400,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2510,10 +2519,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2582,7 +2591,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2655,10 +2664,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -2696,7 +2705,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -2734,7 +2743,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -2772,7 +2781,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -3009,13 +3018,13 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F140"/>
+  <dimension ref="A1:F141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B115" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A86" sqref="A86:XFD86"/>
+      <selection pane="bottomRight" activeCell="B141" sqref="B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3090,7 +3099,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
@@ -3200,7 +3209,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -3218,7 +3227,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -3686,7 +3695,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C37" s="5">
         <v>1</v>
@@ -4117,7 +4126,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -4508,7 +4517,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="32" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -5064,14 +5073,14 @@
       <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117" s="9" t="s">
+      <c r="B117" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" s="5" t="s">
         <v>294</v>
-      </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>295</v>
       </c>
       <c r="E117">
         <v>116</v>
@@ -5085,7 +5094,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -5094,7 +5103,7 @@
         <v>117</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -5102,7 +5111,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -5111,7 +5120,7 @@
         <v>118</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -5119,7 +5128,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -5128,7 +5137,7 @@
         <v>119</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -5136,7 +5145,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -5145,7 +5154,7 @@
         <v>120</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -5153,7 +5162,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -5162,7 +5171,7 @@
         <v>121</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -5170,7 +5179,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -5179,7 +5188,7 @@
         <v>122</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -5187,7 +5196,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -5196,7 +5205,7 @@
         <v>123</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -5204,7 +5213,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -5213,7 +5222,7 @@
         <v>124</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -5221,7 +5230,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -5230,7 +5239,7 @@
         <v>125</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -5238,7 +5247,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -5247,7 +5256,7 @@
         <v>126</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -5255,7 +5264,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -5264,7 +5273,7 @@
         <v>127</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -5272,7 +5281,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -5284,7 +5293,7 @@
         <v>128</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
@@ -5292,7 +5301,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -5304,7 +5313,7 @@
         <v>129</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
@@ -5318,13 +5327,13 @@
         <v>1</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E131" s="5">
         <v>130</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
@@ -5338,13 +5347,13 @@
         <v>1</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E132" s="5">
         <v>131</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
@@ -5352,7 +5361,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C133" s="5">
         <v>1</v>
@@ -5361,7 +5370,7 @@
         <v>132</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -5369,7 +5378,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C134" s="5">
         <v>1</v>
@@ -5378,7 +5387,7 @@
         <v>133</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5398,7 +5407,7 @@
         <v>134</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
@@ -5412,13 +5421,13 @@
         <v>1</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E136">
         <v>135</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
@@ -5432,13 +5441,13 @@
         <v>1</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E137">
         <v>136</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5446,19 +5455,19 @@
         <v>137</v>
       </c>
       <c r="B138" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138" t="s">
         <v>331</v>
-      </c>
-      <c r="C138">
-        <v>1</v>
-      </c>
-      <c r="D138" t="s">
-        <v>332</v>
       </c>
       <c r="E138">
         <v>137</v>
       </c>
       <c r="F138" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5466,7 +5475,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -5478,7 +5487,7 @@
         <v>138</v>
       </c>
       <c r="F139" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
@@ -5497,6 +5506,23 @@
       </c>
       <c r="F140" s="5" t="s">
         <v>165</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" s="32" t="s">
+        <v>355</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="E141">
+        <v>140</v>
+      </c>
+      <c r="F141" s="29" t="s">
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -5634,7 +5660,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5709,7 +5735,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -5898,7 +5924,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="D2" s="5">
         <f>'all_enter|所有按钮入口'!E2</f>
@@ -5917,7 +5943,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D3" s="5">
         <f>'all_enter|所有按钮入口'!E3</f>
@@ -5940,7 +5966,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D4" s="5">
         <f>'all_enter|所有按钮入口'!E4</f>

--- a/config_hlw/game_enter_btn_config.xlsx
+++ b/config_hlw/game_enter_btn_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="820" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="820" firstSheet="21" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="359">
   <si>
     <t>id|行号</t>
   </si>
@@ -1219,10 +1219,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>110#84#114#61#</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>"sys_xsfl",</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1316,23 +1312,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>111#112#43#72#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>11#</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>16;31#</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1377,7 +1356,19 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>85#58#30#140#</t>
+    <t>110#84#114#140#</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>85#58#30#141#</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_042_xshb",</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>111#112#43#141#11#</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1977,7 +1968,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -2312,7 +2303,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -2368,7 +2359,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2400,7 +2391,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2519,10 +2510,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>340</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2591,7 +2582,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2664,10 +2655,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>342</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -2705,7 +2696,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -2743,7 +2734,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -2781,7 +2772,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -3018,13 +3009,13 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F141"/>
+  <dimension ref="A1:F142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B115" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B141" sqref="B141"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3099,7 +3090,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
@@ -3209,7 +3200,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -3227,7 +3218,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -4517,7 +4508,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="32" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -5074,7 +5065,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="32" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -5513,7 +5504,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="32" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -5522,7 +5513,24 @@
         <v>140</v>
       </c>
       <c r="F141" s="29" t="s">
-        <v>354</v>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="E142">
+        <v>140</v>
+      </c>
+      <c r="F142" s="29" t="s">
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -5660,7 +5668,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5735,7 +5743,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -5883,10 +5891,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J140"/>
+  <dimension ref="A1:J147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5924,7 +5932,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D2" s="5">
         <f>'all_enter|所有按钮入口'!E2</f>
@@ -5943,7 +5951,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D3" s="5">
         <f>'all_enter|所有按钮入口'!E3</f>
@@ -5966,7 +5974,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="D4" s="5">
         <f>'all_enter|所有按钮入口'!E4</f>
@@ -7385,6 +7393,34 @@
         <f>'all_enter|所有按钮入口'!F140</f>
         <v>疯狂返利</v>
       </c>
+    </row>
+    <row r="141" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D141" s="5">
+        <f>'all_enter|所有按钮入口'!E141</f>
+        <v>140</v>
+      </c>
+      <c r="E141" s="5" t="str">
+        <f>'all_enter|所有按钮入口'!F141</f>
+        <v>存钱罐-捕鱼</v>
+      </c>
+    </row>
+    <row r="142" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D142" s="5"/>
+    </row>
+    <row r="143" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D143" s="5"/>
+    </row>
+    <row r="144" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D144" s="5"/>
+    </row>
+    <row r="145" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D145" s="5"/>
+    </row>
+    <row r="146" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D146" s="5"/>
+    </row>
+    <row r="147" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D147" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>

--- a/config_hlw/game_enter_btn_config.xlsx
+++ b/config_hlw/game_enter_btn_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="820" firstSheet="21" activeTab="28"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="820" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="362">
   <si>
     <t>id|行号</t>
   </si>
@@ -365,12 +365,6 @@
     <t>all</t>
   </si>
   <si>
-    <t>40#74#110#130#139#</t>
-  </si>
-  <si>
-    <t>58#30#88#42#118#87</t>
-  </si>
-  <si>
     <t>id|按钮组的ID</t>
   </si>
   <si>
@@ -1352,7 +1346,44 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>3#42#10#</t>
+    <t>"act_042_xshb",</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>限时红包</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>新版任务</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_task_management",</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>40#110#130#139#</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>58#30#88#42#118#87</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#110</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>112#142#43#141#11#</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -1360,15 +1391,11 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>85#58#30#141#</t>
+    <t>85#58#30#</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>"act_042_xshb",</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>111#112#43#141#11#</t>
+    <t>141#3#42#10#</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1968,7 +1995,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -2303,7 +2330,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -2510,10 +2537,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2582,7 +2609,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2655,10 +2682,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -2696,7 +2723,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -2734,7 +2761,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -2772,7 +2799,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -2924,7 +2951,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2951,7 +2978,7 @@
         <v>61</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>62</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2968,12 +2995,12 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="25.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
@@ -2994,8 +3021,8 @@
       <c r="B2" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>63</v>
+      <c r="C2" s="29" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3009,13 +3036,13 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F142"/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="B12:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3031,22 +3058,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -3054,7 +3081,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C2" s="5">
         <v>0</v>
@@ -3064,7 +3091,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -3072,7 +3099,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C3" s="5">
         <v>0</v>
@@ -3082,7 +3109,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -3090,19 +3117,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E4" s="5">
         <v>3</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -3110,7 +3137,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
@@ -3120,7 +3147,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -3128,7 +3155,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
@@ -3138,7 +3165,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -3146,7 +3173,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -3156,7 +3183,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -3164,7 +3191,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
@@ -3174,7 +3201,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -3182,7 +3209,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C9" s="5">
         <v>0</v>
@@ -3192,7 +3219,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -3200,7 +3227,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -3210,7 +3237,7 @@
         <v>9</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -3218,7 +3245,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -3228,7 +3255,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -3236,7 +3263,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
@@ -3246,7 +3273,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -3254,7 +3281,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
@@ -3264,7 +3291,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -3272,7 +3299,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C14" s="5">
         <v>0</v>
@@ -3282,7 +3309,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -3290,7 +3317,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C15" s="5">
         <v>0</v>
@@ -3300,7 +3327,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -3308,7 +3335,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C16" s="5">
         <v>0</v>
@@ -3318,7 +3345,7 @@
         <v>15</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -3326,7 +3353,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
@@ -3336,7 +3363,7 @@
         <v>16</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -3344,7 +3371,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C18" s="5">
         <v>0</v>
@@ -3354,7 +3381,7 @@
         <v>17</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -3362,7 +3389,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
@@ -3372,7 +3399,7 @@
         <v>18</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -3380,7 +3407,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
@@ -3390,7 +3417,7 @@
         <v>19</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -3398,7 +3425,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
@@ -3408,7 +3435,7 @@
         <v>20</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -3416,7 +3443,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C22" s="5">
         <v>0</v>
@@ -3426,7 +3453,7 @@
         <v>21</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -3434,7 +3461,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C23" s="5">
         <v>0</v>
@@ -3444,7 +3471,7 @@
         <v>22</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -3452,7 +3479,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C24" s="5">
         <v>1</v>
@@ -3462,7 +3489,7 @@
         <v>23</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -3470,7 +3497,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C25" s="5">
         <v>0</v>
@@ -3480,7 +3507,7 @@
         <v>24</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -3488,7 +3515,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C26" s="5">
         <v>1</v>
@@ -3498,7 +3525,7 @@
         <v>25</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -3506,7 +3533,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C27" s="5">
         <v>1</v>
@@ -3516,7 +3543,7 @@
         <v>26</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -3524,7 +3551,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C28" s="5">
         <v>1</v>
@@ -3534,7 +3561,7 @@
         <v>27</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -3542,7 +3569,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C29" s="5">
         <v>0</v>
@@ -3552,7 +3579,7 @@
         <v>28</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -3560,7 +3587,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C30" s="5">
         <v>1</v>
@@ -3570,7 +3597,7 @@
         <v>29</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -3578,7 +3605,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C31" s="5">
         <v>1</v>
@@ -3588,7 +3615,7 @@
         <v>30</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -3596,7 +3623,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C32" s="5">
         <v>0</v>
@@ -3606,7 +3633,7 @@
         <v>31</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -3614,7 +3641,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C33" s="5">
         <v>0</v>
@@ -3624,7 +3651,7 @@
         <v>32</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -3632,7 +3659,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C34" s="5">
         <v>1</v>
@@ -3642,7 +3669,7 @@
         <v>33</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -3650,7 +3677,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C35" s="5">
         <v>1</v>
@@ -3660,7 +3687,7 @@
         <v>34</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -3668,7 +3695,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C36" s="5">
         <v>1</v>
@@ -3678,7 +3705,7 @@
         <v>35</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -3686,7 +3713,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C37" s="5">
         <v>1</v>
@@ -3696,7 +3723,7 @@
         <v>36</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -3704,7 +3731,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C38" s="5">
         <v>1</v>
@@ -3714,7 +3741,7 @@
         <v>37</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -3722,7 +3749,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C39" s="5">
         <v>1</v>
@@ -3732,7 +3759,7 @@
         <v>38</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -3740,7 +3767,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C40" s="5">
         <v>1</v>
@@ -3750,7 +3777,7 @@
         <v>39</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -3758,7 +3785,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C41" s="5">
         <v>1</v>
@@ -3768,7 +3795,7 @@
         <v>40</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -3776,7 +3803,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -3785,7 +3812,7 @@
         <v>41</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -3793,7 +3820,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -3802,7 +3829,7 @@
         <v>42</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -3810,7 +3837,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -3819,7 +3846,7 @@
         <v>43</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -3827,7 +3854,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -3836,7 +3863,7 @@
         <v>44</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -3844,7 +3871,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -3853,7 +3880,7 @@
         <v>45</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -3861,7 +3888,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -3870,7 +3897,7 @@
         <v>46</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -3878,7 +3905,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -3887,7 +3914,7 @@
         <v>47</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -3895,7 +3922,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -3904,7 +3931,7 @@
         <v>48</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -3912,7 +3939,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -3921,7 +3948,7 @@
         <v>49</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -3929,7 +3956,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -3938,7 +3965,7 @@
         <v>50</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -3946,7 +3973,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -3955,7 +3982,7 @@
         <v>51</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -3963,7 +3990,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -3972,7 +3999,7 @@
         <v>52</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -3980,7 +4007,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C54" s="5">
         <v>1</v>
@@ -3990,7 +4017,7 @@
         <v>53</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -3998,7 +4025,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -4007,7 +4034,7 @@
         <v>54</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -4015,7 +4042,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -4024,7 +4051,7 @@
         <v>55</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -4032,7 +4059,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -4041,7 +4068,7 @@
         <v>56</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -4049,7 +4076,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -4058,7 +4085,7 @@
         <v>57</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -4066,7 +4093,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -4075,7 +4102,7 @@
         <v>58</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -4083,7 +4110,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -4092,7 +4119,7 @@
         <v>59</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -4100,7 +4127,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -4109,7 +4136,7 @@
         <v>60</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -4117,7 +4144,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -4126,7 +4153,7 @@
         <v>61</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -4134,7 +4161,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -4143,7 +4170,7 @@
         <v>62</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -4151,7 +4178,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -4160,7 +4187,7 @@
         <v>63</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -4168,7 +4195,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -4177,7 +4204,7 @@
         <v>64</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -4185,7 +4212,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -4194,7 +4221,7 @@
         <v>65</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -4202,7 +4229,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -4211,7 +4238,7 @@
         <v>66</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -4219,7 +4246,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -4228,7 +4255,7 @@
         <v>67</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -4236,7 +4263,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -4245,7 +4272,7 @@
         <v>68</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -4253,7 +4280,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -4262,7 +4289,7 @@
         <v>69</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -4270,7 +4297,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -4279,7 +4306,7 @@
         <v>70</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -4287,7 +4314,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -4296,7 +4323,7 @@
         <v>71</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -4304,7 +4331,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -4313,7 +4340,7 @@
         <v>72</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -4321,7 +4348,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -4330,7 +4357,7 @@
         <v>73</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -4338,7 +4365,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -4347,7 +4374,7 @@
         <v>74</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -4355,7 +4382,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -4364,7 +4391,7 @@
         <v>75</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -4372,7 +4399,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -4381,7 +4408,7 @@
         <v>76</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -4389,7 +4416,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -4398,7 +4425,7 @@
         <v>77</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -4406,7 +4433,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -4415,7 +4442,7 @@
         <v>78</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -4423,7 +4450,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -4432,7 +4459,7 @@
         <v>79</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -4440,7 +4467,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -4449,7 +4476,7 @@
         <v>80</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -4457,7 +4484,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -4466,7 +4493,7 @@
         <v>81</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -4474,7 +4501,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -4483,7 +4510,7 @@
         <v>82</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -4491,7 +4518,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -4500,7 +4527,7 @@
         <v>83</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -4508,7 +4535,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="32" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -4517,7 +4544,7 @@
         <v>84</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -4525,7 +4552,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -4534,7 +4561,7 @@
         <v>85</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -4542,7 +4569,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -4551,7 +4578,7 @@
         <v>86</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -4559,19 +4586,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E88">
         <v>87</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -4579,7 +4606,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -4588,7 +4615,7 @@
         <v>88</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -4596,7 +4623,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -4605,7 +4632,7 @@
         <v>89</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -4613,7 +4640,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -4622,7 +4649,7 @@
         <v>90</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -4630,7 +4657,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -4639,7 +4666,7 @@
         <v>91</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -4647,7 +4674,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -4656,7 +4683,7 @@
         <v>92</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -4664,7 +4691,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -4673,7 +4700,7 @@
         <v>93</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -4681,7 +4708,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -4690,7 +4717,7 @@
         <v>94</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -4698,7 +4725,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -4707,7 +4734,7 @@
         <v>95</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -4715,7 +4742,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -4724,7 +4751,7 @@
         <v>96</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -4732,7 +4759,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -4742,7 +4769,7 @@
         <v>97</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -4750,7 +4777,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -4759,7 +4786,7 @@
         <v>98</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -4767,7 +4794,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -4776,7 +4803,7 @@
         <v>99</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -4784,7 +4811,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -4793,7 +4820,7 @@
         <v>100</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -4801,19 +4828,19 @@
         <v>101</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E102">
         <v>101</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4821,7 +4848,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C103" s="1">
         <v>1</v>
@@ -4830,7 +4857,7 @@
         <v>102</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -4838,7 +4865,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -4847,7 +4874,7 @@
         <v>103</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4855,7 +4882,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C105" s="2">
         <v>1</v>
@@ -4864,7 +4891,7 @@
         <v>104</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -4872,19 +4899,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E106">
         <v>105</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -4892,7 +4919,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -4901,7 +4928,7 @@
         <v>106</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -4909,7 +4936,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -4918,7 +4945,7 @@
         <v>107</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -4926,7 +4953,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -4935,7 +4962,7 @@
         <v>108</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -4943,7 +4970,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -4952,7 +4979,7 @@
         <v>109</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -4960,7 +4987,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -4969,7 +4996,7 @@
         <v>110</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -4977,7 +5004,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -4986,7 +5013,7 @@
         <v>111</v>
       </c>
       <c r="F112" s="14" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -4994,7 +5021,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -5003,7 +5030,7 @@
         <v>112</v>
       </c>
       <c r="F113" s="14" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -5011,7 +5038,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -5020,7 +5047,7 @@
         <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -5028,7 +5055,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -5037,7 +5064,7 @@
         <v>114</v>
       </c>
       <c r="F115" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -5045,19 +5072,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -5065,19 +5092,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="32" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E117">
         <v>116</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5085,7 +5112,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -5094,7 +5121,7 @@
         <v>117</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -5102,7 +5129,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -5111,7 +5138,7 @@
         <v>118</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -5119,7 +5146,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -5128,7 +5155,7 @@
         <v>119</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -5136,7 +5163,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -5145,7 +5172,7 @@
         <v>120</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -5153,7 +5180,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -5162,7 +5189,7 @@
         <v>121</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -5170,7 +5197,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -5179,7 +5206,7 @@
         <v>122</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -5187,7 +5214,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -5196,7 +5223,7 @@
         <v>123</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -5204,7 +5231,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -5213,7 +5240,7 @@
         <v>124</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -5221,7 +5248,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -5230,7 +5257,7 @@
         <v>125</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -5238,7 +5265,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -5247,7 +5274,7 @@
         <v>126</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -5255,7 +5282,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -5264,7 +5291,7 @@
         <v>127</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -5272,19 +5299,19 @@
         <v>128</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
       <c r="D129" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E129">
         <v>128</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
@@ -5292,19 +5319,19 @@
         <v>129</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
       <c r="D130" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E130">
         <v>129</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
@@ -5312,19 +5339,19 @@
         <v>130</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C131" s="5">
         <v>1</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E131" s="5">
         <v>130</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
@@ -5332,19 +5359,19 @@
         <v>131</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C132" s="5">
         <v>1</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E132" s="5">
         <v>131</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
@@ -5352,7 +5379,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C133" s="5">
         <v>1</v>
@@ -5361,7 +5388,7 @@
         <v>132</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -5369,7 +5396,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C134" s="5">
         <v>1</v>
@@ -5378,7 +5405,7 @@
         <v>133</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5386,19 +5413,19 @@
         <v>134</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
       <c r="D135" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E135">
         <v>134</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
@@ -5406,19 +5433,19 @@
         <v>135</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C136">
         <v>1</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E136">
         <v>135</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
@@ -5426,19 +5453,19 @@
         <v>136</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E137">
         <v>136</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5446,19 +5473,19 @@
         <v>137</v>
       </c>
       <c r="B138" s="16" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
       <c r="D138" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E138">
         <v>137</v>
       </c>
       <c r="F138" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5466,19 +5493,19 @@
         <v>138</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
       <c r="D139" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E139">
         <v>138</v>
       </c>
       <c r="F139" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
@@ -5486,7 +5513,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -5496,7 +5523,7 @@
         <v>139</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
@@ -5504,7 +5531,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="32" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -5513,7 +5540,7 @@
         <v>140</v>
       </c>
       <c r="F141" s="29" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
@@ -5521,16 +5548,33 @@
         <v>141</v>
       </c>
       <c r="B142" s="32" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C142">
         <v>1</v>
       </c>
       <c r="E142">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F142" s="29" t="s">
-        <v>352</v>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" s="32" t="s">
+        <v>355</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="E143">
+        <v>142</v>
+      </c>
+      <c r="F143" s="29" t="s">
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -5668,7 +5712,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5743,7 +5787,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -5893,8 +5937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J147"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5932,7 +5976,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="D2" s="5">
         <f>'all_enter|所有按钮入口'!E2</f>
@@ -5951,7 +5995,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D3" s="5">
         <f>'all_enter|所有按钮入口'!E3</f>
@@ -5974,7 +6018,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D4" s="5">
         <f>'all_enter|所有按钮入口'!E4</f>
